--- a/cs696_scraping/structured/revenue clean data/2016_revenue_clean.xlsx
+++ b/cs696_scraping/structured/revenue clean data/2016_revenue_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Umass spring 20\696\KT\CS696\cs696_scraping\structured\revenue clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2DC5221-F434-428C-B52E-D446A535D588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F20072-A6D5-46CC-B39F-D67DD95C52E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEB3969C-8F01-4148-A956-291901493361}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>year</t>
   </si>
@@ -104,9 +104,6 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>UNP</t>
   </si>
   <si>
@@ -116,15 +113,9 @@
     <t>TXN</t>
   </si>
   <si>
-    <t>NKE</t>
-  </si>
-  <si>
     <t>AVGO</t>
   </si>
   <si>
-    <t>ORCL</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
@@ -191,9 +182,6 @@
     <t>BIIB</t>
   </si>
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
     <t>ITW</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
     <t>EQIX</t>
   </si>
   <si>
-    <t>ICE</t>
-  </si>
-  <si>
     <t>AEP</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
     <t>ADI</t>
   </si>
   <si>
-    <t>ETN</t>
-  </si>
-  <si>
     <t>KMI</t>
   </si>
   <si>
@@ -392,9 +374,6 @@
     <t>LYB</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>HSY</t>
   </si>
   <si>
@@ -461,9 +440,6 @@
     <t>PAYC</t>
   </si>
   <si>
-    <t>MAA</t>
-  </si>
-  <si>
     <t>CTL</t>
   </si>
   <si>
@@ -536,9 +512,6 @@
     <t>INCY</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
     <t>DRE</t>
   </si>
   <si>
@@ -641,15 +614,9 @@
     <t>FBHS</t>
   </si>
   <si>
-    <t>COUP</t>
-  </si>
-  <si>
     <t>MRO</t>
   </si>
   <si>
-    <t>RPM</t>
-  </si>
-  <si>
     <t>GWRE</t>
   </si>
   <si>
@@ -662,12 +629,6 @@
     <t>WHR</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>VST</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
@@ -740,9 +701,6 @@
     <t>KIM</t>
   </si>
   <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>AIV</t>
   </si>
   <si>
@@ -761,12 +719,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -821,9 +773,6 @@
     <t>FAF</t>
   </si>
   <si>
-    <t>MDB</t>
-  </si>
-  <si>
     <t>CACI</t>
   </si>
   <si>
@@ -872,9 +821,6 @@
     <t>SABR</t>
   </si>
   <si>
-    <t>AYX</t>
-  </si>
-  <si>
     <t>LEG</t>
   </si>
   <si>
@@ -932,9 +878,6 @@
     <t>HBI</t>
   </si>
   <si>
-    <t>LSI</t>
-  </si>
-  <si>
     <t>SRC</t>
   </si>
   <si>
@@ -956,9 +899,6 @@
     <t>MTG</t>
   </si>
   <si>
-    <t>JBGS</t>
-  </si>
-  <si>
     <t>IPGP</t>
   </si>
   <si>
@@ -974,9 +914,6 @@
     <t>HEI</t>
   </si>
   <si>
-    <t>GDI</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -989,9 +926,6 @@
     <t>HP</t>
   </si>
   <si>
-    <t>BHF</t>
-  </si>
-  <si>
     <t>CACC</t>
   </si>
   <si>
@@ -1064,9 +998,6 @@
     <t>CHH</t>
   </si>
   <si>
-    <t>FND</t>
-  </si>
-  <si>
     <t>CFX</t>
   </si>
   <si>
@@ -1082,9 +1013,6 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>MUR</t>
-  </si>
-  <si>
     <t>PEGA</t>
   </si>
   <si>
@@ -1115,9 +1043,6 @@
     <t>DKS</t>
   </si>
   <si>
-    <t>OLLI</t>
-  </si>
-  <si>
     <t>FLR</t>
   </si>
   <si>
@@ -1154,9 +1079,6 @@
     <t>ESRT</t>
   </si>
   <si>
-    <t>HAIN</t>
-  </si>
-  <si>
     <t>KOS</t>
   </si>
   <si>
@@ -1187,9 +1109,6 @@
     <t>CNA</t>
   </si>
   <si>
-    <t>SNDR</t>
-  </si>
-  <si>
     <t>ANAT</t>
   </si>
   <si>
@@ -1208,9 +1127,6 @@
     <t>CHTR</t>
   </si>
   <si>
-    <t>PLD</t>
-  </si>
-  <si>
     <t>ZTS</t>
   </si>
   <si>
@@ -1238,18 +1154,9 @@
     <t>CINF</t>
   </si>
   <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
     <t>FOXA</t>
   </si>
   <si>
-    <t>OKTA</t>
-  </si>
-  <si>
     <t>HAS</t>
   </si>
   <si>
@@ -1286,9 +1193,6 @@
     <t>VOYA</t>
   </si>
   <si>
-    <t>ATUS</t>
-  </si>
-  <si>
     <t>ZAYO</t>
   </si>
   <si>
@@ -1322,9 +1226,6 @@
     <t>MIC</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
@@ -1371,12 +1272,6 @@
   </si>
   <si>
     <t>VER</t>
-  </si>
-  <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>IRM</t>
   </si>
   <si>
     <t>CZR</t>
@@ -1454,7 +1349,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1764,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A5339-ED55-4C51-9D76-3E4C006F38B6}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D457"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1973,7 +1879,7 @@
         <v>2016</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C15">
         <v>104169</v>
@@ -1987,7 +1893,7 @@
         <v>2016</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C16">
         <v>1613103</v>
@@ -2088,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>909832</v>
+        <v>100885</v>
       </c>
       <c r="D23">
-        <v>79919000000</v>
+        <v>19941000000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2102,10 +2008,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>100885</v>
+        <v>59478</v>
       </c>
       <c r="D24">
-        <v>19941000000</v>
+        <v>21222100000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2116,10 +2022,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>59478</v>
+        <v>97476</v>
       </c>
       <c r="D25">
-        <v>21222100000</v>
+        <v>13370000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2130,10 +2036,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>97476</v>
+        <v>1649338</v>
       </c>
       <c r="D26">
-        <v>13370000000</v>
+        <v>13240000000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2144,10 +2050,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>320187</v>
+        <v>1318605</v>
       </c>
       <c r="D27">
-        <v>13370000000</v>
+        <v>7000132000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2158,10 +2064,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1649338</v>
+        <v>804328</v>
       </c>
       <c r="D28">
-        <v>13240000000</v>
+        <v>23554000000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2172,10 +2078,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1341439</v>
+        <v>1053507</v>
       </c>
       <c r="D29">
-        <v>13240000000</v>
+        <v>5785668000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2186,10 +2092,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1318605</v>
+        <v>64803</v>
       </c>
       <c r="D30">
-        <v>7000132000</v>
+        <v>177526000000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2200,10 +2106,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>804328</v>
+        <v>882095</v>
       </c>
       <c r="D31">
-        <v>23554000000</v>
+        <v>30390000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2211,13 +2117,13 @@
         <v>2016</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="C32">
-        <v>1053507</v>
+        <v>1091667</v>
       </c>
       <c r="D32">
-        <v>5785668000</v>
+        <v>10275000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2225,13 +2131,13 @@
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>64803</v>
+        <v>10795</v>
       </c>
       <c r="D33">
-        <v>177526000000</v>
+        <v>12483000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2239,13 +2145,13 @@
         <v>2016</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>882095</v>
+        <v>701221</v>
       </c>
       <c r="D34">
-        <v>30390000000</v>
+        <v>39668000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -2253,13 +2159,13 @@
         <v>2016</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>1091667</v>
+        <v>1156375</v>
       </c>
       <c r="D35">
-        <v>10275000000</v>
+        <v>3595200000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2270,10 +2176,10 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>10795</v>
+        <v>109198</v>
       </c>
       <c r="D36">
-        <v>12483000000</v>
+        <v>33183744000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2284,10 +2190,10 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>701221</v>
+        <v>1156039</v>
       </c>
       <c r="D37">
-        <v>39668000000</v>
+        <v>84863000000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2298,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>1156375</v>
+        <v>64040</v>
       </c>
       <c r="D38">
-        <v>3595200000</v>
+        <v>1399000000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2312,10 +2218,10 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>109198</v>
+        <v>896878</v>
       </c>
       <c r="D39">
-        <v>33183744000</v>
+        <v>4694000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2326,10 +2232,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>1156039</v>
+        <v>92122</v>
       </c>
       <c r="D40">
-        <v>84863000000</v>
+        <v>1652000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2340,10 +2246,10 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>64040</v>
+        <v>1326160</v>
       </c>
       <c r="D41">
-        <v>1399000000</v>
+        <v>22743000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2354,10 +2260,10 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>896878</v>
+        <v>715957</v>
       </c>
       <c r="D42">
-        <v>4694000000</v>
+        <v>11737000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2368,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>92122</v>
+        <v>798354</v>
       </c>
       <c r="D43">
-        <v>1652000000</v>
+        <v>5505000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2382,10 +2288,10 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>1326160</v>
+        <v>1035267</v>
       </c>
       <c r="D44">
-        <v>22743000000</v>
+        <v>2704400000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2393,13 +2299,13 @@
         <v>2016</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="C45">
-        <v>715957</v>
+        <v>1555280</v>
       </c>
       <c r="D45">
-        <v>11737000000</v>
+        <v>4888000000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2407,13 +2313,13 @@
         <v>2016</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>798354</v>
+        <v>21665</v>
       </c>
       <c r="D46">
-        <v>5505000000</v>
+        <v>15195000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2421,13 +2327,13 @@
         <v>2016</v>
       </c>
       <c r="B47" t="s">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>1045609</v>
+        <v>1047122</v>
       </c>
       <c r="D47">
-        <v>5505000000</v>
+        <v>24069000000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2435,13 +2341,13 @@
         <v>2016</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="C48">
-        <v>1035267</v>
+        <v>1578845</v>
       </c>
       <c r="D48">
-        <v>2704400000</v>
+        <v>14570600000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2449,13 +2355,13 @@
         <v>2016</v>
       </c>
       <c r="B49" t="s">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>1555280</v>
+        <v>723125</v>
       </c>
       <c r="D49">
-        <v>4888000000</v>
+        <v>12399000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2466,10 +2372,10 @@
         <v>47</v>
       </c>
       <c r="C50">
-        <v>21665</v>
+        <v>875320</v>
       </c>
       <c r="D50">
-        <v>15195000000</v>
+        <v>1702177000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2480,10 +2386,10 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <v>1047122</v>
+        <v>875045</v>
       </c>
       <c r="D51">
-        <v>24069000000</v>
+        <v>11448800000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2491,13 +2397,13 @@
         <v>2016</v>
       </c>
       <c r="B52" t="s">
-        <v>433</v>
+        <v>49</v>
       </c>
       <c r="C52">
-        <v>1578845</v>
+        <v>49826</v>
       </c>
       <c r="D52">
-        <v>14570600000</v>
+        <v>13599000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2505,13 +2411,13 @@
         <v>2016</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>723125</v>
+        <v>885725</v>
       </c>
       <c r="D53">
-        <v>12399000000</v>
+        <v>8386000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2519,13 +2425,13 @@
         <v>2016</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>875320</v>
+        <v>6951</v>
       </c>
       <c r="D54">
-        <v>1702177000</v>
+        <v>10825000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2533,13 +2439,13 @@
         <v>2016</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>875045</v>
+        <v>27419</v>
       </c>
       <c r="D55">
-        <v>11448800000</v>
+        <v>69495000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2547,13 +2453,13 @@
         <v>2016</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56">
-        <v>1123360</v>
+        <v>702165</v>
       </c>
       <c r="D56">
-        <v>11448800000</v>
+        <v>9888000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2561,13 +2467,13 @@
         <v>2016</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>49826</v>
+        <v>316709</v>
       </c>
       <c r="D57">
-        <v>13599000000</v>
+        <v>7478000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2575,13 +2481,13 @@
         <v>2016</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>885725</v>
+        <v>315293</v>
       </c>
       <c r="D58">
-        <v>8386000000</v>
+        <v>11627000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2589,13 +2495,13 @@
         <v>2016</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59">
-        <v>6951</v>
+        <v>823768</v>
       </c>
       <c r="D59">
-        <v>10825000000</v>
+        <v>13609000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2603,13 +2509,13 @@
         <v>2016</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>27419</v>
+        <v>2488</v>
       </c>
       <c r="D60">
-        <v>69495000000</v>
+        <v>4272000000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2617,13 +2523,13 @@
         <v>2016</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>702165</v>
+        <v>1101239</v>
       </c>
       <c r="D61">
-        <v>9888000000</v>
+        <v>3611989000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2631,13 +2537,13 @@
         <v>2016</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>316709</v>
+        <v>4904</v>
       </c>
       <c r="D62">
-        <v>7478000000</v>
+        <v>16380100000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2645,13 +2551,13 @@
         <v>2016</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>315293</v>
+        <v>49071</v>
       </c>
       <c r="D63">
-        <v>11627000000</v>
+        <v>12878000000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2659,13 +2565,13 @@
         <v>2016</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>823768</v>
+        <v>1099800</v>
       </c>
       <c r="D64">
-        <v>13609000000</v>
+        <v>2963700000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2673,13 +2579,13 @@
         <v>2016</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>2488</v>
+        <v>707549</v>
       </c>
       <c r="D65">
-        <v>4272000000</v>
+        <v>5885893000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2687,13 +2593,13 @@
         <v>2016</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>365</v>
       </c>
       <c r="C66">
-        <v>1101239</v>
+        <v>5272</v>
       </c>
       <c r="D66">
-        <v>3611989000</v>
+        <v>52367000000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2704,10 +2610,10 @@
         <v>63</v>
       </c>
       <c r="C67">
-        <v>1571949</v>
+        <v>718877</v>
       </c>
       <c r="D67">
-        <v>3611989000</v>
+        <v>6608000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2718,10 +2624,10 @@
         <v>64</v>
       </c>
       <c r="C68">
-        <v>4904</v>
+        <v>769397</v>
       </c>
       <c r="D68">
-        <v>16380100000</v>
+        <v>2031000000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2732,10 +2638,10 @@
         <v>65</v>
       </c>
       <c r="C69">
-        <v>49071</v>
+        <v>10456</v>
       </c>
       <c r="D69">
-        <v>12878000000</v>
+        <v>10163000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2746,10 +2652,10 @@
         <v>66</v>
       </c>
       <c r="C70">
-        <v>1099800</v>
+        <v>1110803</v>
       </c>
       <c r="D70">
-        <v>2963700000</v>
+        <v>2398373000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2760,10 +2666,10 @@
         <v>67</v>
       </c>
       <c r="C71">
-        <v>707549</v>
+        <v>1059556</v>
       </c>
       <c r="D71">
-        <v>5885893000</v>
+        <v>3604200000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2771,13 +2677,13 @@
         <v>2016</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>5272</v>
+        <v>6281</v>
       </c>
       <c r="D72">
-        <v>52367000000</v>
+        <v>3421409000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2785,13 +2691,13 @@
         <v>2016</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73">
-        <v>718877</v>
+        <v>1506307</v>
       </c>
       <c r="D73">
-        <v>6608000000</v>
+        <v>13058000000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2799,13 +2705,13 @@
         <v>2016</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74">
-        <v>769397</v>
+        <v>1048286</v>
       </c>
       <c r="D74">
-        <v>2031000000</v>
+        <v>17072000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2813,13 +2719,13 @@
         <v>2016</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>10456</v>
+        <v>899051</v>
       </c>
       <c r="D75">
-        <v>10163000000</v>
+        <v>36534000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2827,13 +2733,13 @@
         <v>2016</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76">
-        <v>1110803</v>
+        <v>1099219</v>
       </c>
       <c r="D76">
-        <v>2398373000</v>
+        <v>63476000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2841,13 +2747,13 @@
         <v>2016</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77">
-        <v>1059556</v>
+        <v>1137774</v>
       </c>
       <c r="D77">
-        <v>3604200000</v>
+        <v>58779000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2855,13 +2761,13 @@
         <v>2016</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>6281</v>
+        <v>1071739</v>
       </c>
       <c r="D78">
-        <v>3421409000</v>
+        <v>40607000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2869,13 +2775,13 @@
         <v>2016</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>1551182</v>
+        <v>797468</v>
       </c>
       <c r="D79">
-        <v>3421409000</v>
+        <v>10090000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2883,13 +2789,13 @@
         <v>2016</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>1506307</v>
+        <v>72903</v>
       </c>
       <c r="D80">
-        <v>13058000000</v>
+        <v>11106920000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2897,13 +2803,13 @@
         <v>2016</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81">
-        <v>1048286</v>
+        <v>1058290</v>
       </c>
       <c r="D81">
-        <v>17072000000</v>
+        <v>13487000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2911,13 +2817,13 @@
         <v>2016</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82">
-        <v>899051</v>
+        <v>27904</v>
       </c>
       <c r="D82">
-        <v>36534000000</v>
+        <v>39639000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2925,13 +2831,13 @@
         <v>2016</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83">
-        <v>1099219</v>
+        <v>1041061</v>
       </c>
       <c r="D83">
-        <v>63476000000</v>
+        <v>6366000000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2939,13 +2845,13 @@
         <v>2016</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="C84">
-        <v>1137774</v>
+        <v>1598014</v>
       </c>
       <c r="D84">
-        <v>58779000000</v>
+        <v>2734800000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2953,13 +2859,13 @@
         <v>2016</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="C85">
-        <v>1071739</v>
+        <v>1585689</v>
       </c>
       <c r="D85">
-        <v>40607000000</v>
+        <v>11663000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2967,13 +2873,13 @@
         <v>2016</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86">
-        <v>797468</v>
+        <v>712515</v>
       </c>
       <c r="D86">
-        <v>10090000000</v>
+        <v>4396000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2981,13 +2887,13 @@
         <v>2016</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87">
-        <v>72903</v>
+        <v>1039684</v>
       </c>
       <c r="D87">
-        <v>11106920000</v>
+        <v>8920934000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2995,13 +2901,13 @@
         <v>2016</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88">
-        <v>1058290</v>
+        <v>898173</v>
       </c>
       <c r="D88">
-        <v>13487000000</v>
+        <v>8593096000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3009,13 +2915,13 @@
         <v>2016</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89">
-        <v>27904</v>
+        <v>833444</v>
       </c>
       <c r="D89">
-        <v>39639000000</v>
+        <v>37674000000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3023,13 +2929,13 @@
         <v>2016</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90">
-        <v>1041061</v>
+        <v>1260221</v>
       </c>
       <c r="D90">
-        <v>6366000000</v>
+        <v>3171411000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3037,13 +2943,13 @@
         <v>2016</v>
       </c>
       <c r="B91" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C91">
-        <v>1598014</v>
+        <v>1327811</v>
       </c>
       <c r="D91">
-        <v>2734800000</v>
+        <v>1569407000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3051,13 +2957,13 @@
         <v>2016</v>
       </c>
       <c r="B92" t="s">
-        <v>434</v>
+        <v>85</v>
       </c>
       <c r="C92">
-        <v>1585689</v>
+        <v>906107</v>
       </c>
       <c r="D92">
-        <v>11663000000</v>
+        <v>2425800000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3068,10 +2974,10 @@
         <v>86</v>
       </c>
       <c r="C93">
-        <v>712515</v>
+        <v>68505</v>
       </c>
       <c r="D93">
-        <v>4396000000</v>
+        <v>6038000000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3082,10 +2988,10 @@
         <v>87</v>
       </c>
       <c r="C94">
-        <v>1039684</v>
+        <v>788784</v>
       </c>
       <c r="D94">
-        <v>8920934000</v>
+        <v>9061000000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3096,10 +3002,10 @@
         <v>88</v>
       </c>
       <c r="C95">
-        <v>898173</v>
+        <v>72741</v>
       </c>
       <c r="D95">
-        <v>8593096000</v>
+        <v>7639129000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3110,10 +3016,10 @@
         <v>89</v>
       </c>
       <c r="C96">
-        <v>833444</v>
+        <v>1034054</v>
       </c>
       <c r="D96">
-        <v>37674000000</v>
+        <v>1633125000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3124,10 +3030,10 @@
         <v>90</v>
       </c>
       <c r="C97">
-        <v>1260221</v>
+        <v>1140536</v>
       </c>
       <c r="D97">
-        <v>3171411000</v>
+        <v>7887000000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3135,13 +3041,13 @@
         <v>2016</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>91</v>
       </c>
       <c r="C98">
-        <v>1327811</v>
+        <v>1175454</v>
       </c>
       <c r="D98">
-        <v>1569407000</v>
+        <v>1831546000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3149,13 +3055,13 @@
         <v>2016</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99">
-        <v>906107</v>
+        <v>927653</v>
       </c>
       <c r="D99">
-        <v>2425800000</v>
+        <v>190884000000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3163,13 +3069,13 @@
         <v>2016</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C100">
-        <v>68505</v>
+        <v>319201</v>
       </c>
       <c r="D100">
-        <v>6038000000</v>
+        <v>2984493000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3177,13 +3083,13 @@
         <v>2016</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101">
-        <v>788784</v>
+        <v>827052</v>
       </c>
       <c r="D101">
-        <v>9061000000</v>
+        <v>11869000000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3191,13 +3097,13 @@
         <v>2016</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="C102">
-        <v>72741</v>
+        <v>1512673</v>
       </c>
       <c r="D102">
-        <v>7639129000</v>
+        <v>1708721000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3205,13 +3111,13 @@
         <v>2016</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="C103">
-        <v>1034054</v>
+        <v>922224</v>
       </c>
       <c r="D103">
-        <v>1633125000</v>
+        <v>7517000000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -3219,13 +3125,13 @@
         <v>2016</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104">
-        <v>1140536</v>
+        <v>866787</v>
       </c>
       <c r="D104">
-        <v>7887000000</v>
+        <v>10635676000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -3233,13 +3139,13 @@
         <v>2016</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>1175454</v>
+        <v>93556</v>
       </c>
       <c r="D105">
-        <v>1831546000</v>
+        <v>11406900000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -3247,13 +3153,13 @@
         <v>2016</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106">
-        <v>927653</v>
+        <v>1418091</v>
       </c>
       <c r="D106">
-        <v>190884000000</v>
+        <v>2529619000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -3261,13 +3167,13 @@
         <v>2016</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107">
-        <v>319201</v>
+        <v>1353283</v>
       </c>
       <c r="D107">
-        <v>2984493000</v>
+        <v>949955000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -3275,13 +3181,13 @@
         <v>2016</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108">
-        <v>827052</v>
+        <v>827054</v>
       </c>
       <c r="D108">
-        <v>11869000000</v>
+        <v>2173334000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3289,13 +3195,13 @@
         <v>2016</v>
       </c>
       <c r="B109" t="s">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="C109">
-        <v>1512673</v>
+        <v>26172</v>
       </c>
       <c r="D109">
-        <v>1708721000</v>
+        <v>17509000000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -3303,13 +3209,13 @@
         <v>2016</v>
       </c>
       <c r="B110" t="s">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="C110">
-        <v>922224</v>
+        <v>936340</v>
       </c>
       <c r="D110">
-        <v>7517000000</v>
+        <v>10630000000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -3317,13 +3223,13 @@
         <v>2016</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111">
-        <v>866787</v>
+        <v>804753</v>
       </c>
       <c r="D111">
-        <v>10635676000</v>
+        <v>4796473000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3331,13 +3237,13 @@
         <v>2016</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112">
-        <v>93556</v>
+        <v>1408198</v>
       </c>
       <c r="D112">
-        <v>11406900000</v>
+        <v>292812000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3345,13 +3251,13 @@
         <v>2016</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113">
-        <v>1418091</v>
+        <v>100493</v>
       </c>
       <c r="D113">
-        <v>2529619000</v>
+        <v>36881000000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3359,13 +3265,13 @@
         <v>2016</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C114">
-        <v>1353283</v>
+        <v>1057352</v>
       </c>
       <c r="D114">
-        <v>949955000</v>
+        <v>837630000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3373,13 +3279,13 @@
         <v>2016</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C115">
-        <v>827054</v>
+        <v>1013462</v>
       </c>
       <c r="D115">
-        <v>2173334000</v>
+        <v>988465000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -3387,13 +3293,13 @@
         <v>2016</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>369</v>
       </c>
       <c r="C116">
-        <v>26172</v>
+        <v>1038357</v>
       </c>
       <c r="D116">
-        <v>17509000000</v>
+        <v>3824000000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3404,10 +3310,10 @@
         <v>107</v>
       </c>
       <c r="C117">
-        <v>936340</v>
+        <v>874716</v>
       </c>
       <c r="D117">
-        <v>10630000000</v>
+        <v>1775423000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3418,10 +3324,10 @@
         <v>108</v>
       </c>
       <c r="C118">
-        <v>804753</v>
+        <v>1300514</v>
       </c>
       <c r="D118">
-        <v>4796473000</v>
+        <v>11410000000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3432,10 +3338,10 @@
         <v>109</v>
       </c>
       <c r="C119">
-        <v>1408198</v>
+        <v>883241</v>
       </c>
       <c r="D119">
-        <v>292812000</v>
+        <v>2422532000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3443,13 +3349,13 @@
         <v>2016</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="C120">
-        <v>100493</v>
+        <v>1327567</v>
       </c>
       <c r="D120">
-        <v>36881000000</v>
+        <v>1378500000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3457,13 +3363,13 @@
         <v>2016</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121">
-        <v>1057352</v>
+        <v>743988</v>
       </c>
       <c r="D121">
-        <v>837630000</v>
+        <v>2213881000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3471,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122">
-        <v>1013462</v>
+        <v>1037540</v>
       </c>
       <c r="D122">
-        <v>988465000</v>
+        <v>2550820000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3485,13 +3391,13 @@
         <v>2016</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="C123">
-        <v>1038357</v>
+        <v>1489393</v>
       </c>
       <c r="D123">
-        <v>3824000000</v>
+        <v>29183000000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3499,13 +3405,13 @@
         <v>2016</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>403</v>
       </c>
       <c r="C124">
-        <v>874716</v>
+        <v>899866</v>
       </c>
       <c r="D124">
-        <v>1775423000</v>
+        <v>3084000000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3513,13 +3419,13 @@
         <v>2016</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125">
-        <v>1300514</v>
+        <v>47111</v>
       </c>
       <c r="D125">
-        <v>11410000000</v>
+        <v>7440181000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3527,13 +3433,13 @@
         <v>2016</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C126">
-        <v>883241</v>
+        <v>740260</v>
       </c>
       <c r="D126">
-        <v>2422532000</v>
+        <v>3443522000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3541,13 +3447,13 @@
         <v>2016</v>
       </c>
       <c r="B127" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="C127">
-        <v>1327567</v>
+        <v>1093557</v>
       </c>
       <c r="D127">
-        <v>1378500000</v>
+        <v>573300000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3558,10 +3464,10 @@
         <v>116</v>
       </c>
       <c r="C128">
-        <v>743988</v>
+        <v>1097149</v>
       </c>
       <c r="D128">
-        <v>2213881000</v>
+        <v>1079874000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3569,13 +3475,13 @@
         <v>2016</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="C129">
-        <v>1037540</v>
+        <v>21076</v>
       </c>
       <c r="D129">
-        <v>2550820000</v>
+        <v>5761000000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3583,13 +3489,13 @@
         <v>2016</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130">
-        <v>1489393</v>
+        <v>1060391</v>
       </c>
       <c r="D130">
-        <v>29183000000</v>
+        <v>9387700000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3597,13 +3503,13 @@
         <v>2016</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C131">
-        <v>56873</v>
+        <v>900075</v>
       </c>
       <c r="D131">
-        <v>29183000000</v>
+        <v>1268449000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3611,13 +3517,13 @@
         <v>2016</v>
       </c>
       <c r="B132" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
       <c r="C132">
-        <v>899866</v>
+        <v>920522</v>
       </c>
       <c r="D132">
-        <v>3084000000</v>
+        <v>1294001000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3628,10 +3534,10 @@
         <v>120</v>
       </c>
       <c r="C133">
-        <v>47111</v>
+        <v>45012</v>
       </c>
       <c r="D133">
-        <v>7440181000</v>
+        <v>15887000000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3642,10 +3548,10 @@
         <v>121</v>
       </c>
       <c r="C134">
-        <v>740260</v>
+        <v>1402057</v>
       </c>
       <c r="D134">
-        <v>3443522000</v>
+        <v>3492400000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -3656,10 +3562,10 @@
         <v>122</v>
       </c>
       <c r="C135">
-        <v>1093557</v>
+        <v>354190</v>
       </c>
       <c r="D135">
-        <v>573300000</v>
+        <v>5594800000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3670,10 +3576,10 @@
         <v>123</v>
       </c>
       <c r="C136">
-        <v>1097149</v>
+        <v>811156</v>
       </c>
       <c r="D136">
-        <v>1079874000</v>
+        <v>6399000000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -3681,13 +3587,13 @@
         <v>2016</v>
       </c>
       <c r="B137" t="s">
-        <v>399</v>
+        <v>124</v>
       </c>
       <c r="C137">
-        <v>21076</v>
+        <v>1037646</v>
       </c>
       <c r="D137">
-        <v>5761000000</v>
+        <v>2508257000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3695,13 +3601,13 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C138">
-        <v>1060391</v>
+        <v>920148</v>
       </c>
       <c r="D138">
-        <v>9387700000</v>
+        <v>6011600000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3709,13 +3615,13 @@
         <v>2016</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="C139">
-        <v>900075</v>
+        <v>96943</v>
       </c>
       <c r="D139">
-        <v>1268449000</v>
+        <v>1868027000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3726,10 +3632,10 @@
         <v>126</v>
       </c>
       <c r="C140">
-        <v>920522</v>
+        <v>947484</v>
       </c>
       <c r="D140">
-        <v>1294001000</v>
+        <v>4463556000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -3740,10 +3646,10 @@
         <v>127</v>
       </c>
       <c r="C141">
-        <v>45012</v>
+        <v>711404</v>
       </c>
       <c r="D141">
-        <v>15887000000</v>
+        <v>1966814000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -3754,10 +3660,10 @@
         <v>128</v>
       </c>
       <c r="C142">
-        <v>1402057</v>
+        <v>1262039</v>
       </c>
       <c r="D142">
-        <v>3492400000</v>
+        <v>1275443000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3768,10 +3674,10 @@
         <v>129</v>
       </c>
       <c r="C143">
-        <v>354190</v>
+        <v>1058057</v>
       </c>
       <c r="D143">
-        <v>5594800000</v>
+        <v>2317674000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -3782,10 +3688,10 @@
         <v>130</v>
       </c>
       <c r="C144">
-        <v>811156</v>
+        <v>54480</v>
       </c>
       <c r="D144">
-        <v>6399000000</v>
+        <v>2334200000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3796,10 +3702,10 @@
         <v>131</v>
       </c>
       <c r="C145">
-        <v>1037646</v>
+        <v>29989</v>
       </c>
       <c r="D145">
-        <v>2508257000</v>
+        <v>15416900000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3807,13 +3713,13 @@
         <v>2016</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="C146">
-        <v>920148</v>
+        <v>20286</v>
       </c>
       <c r="D146">
-        <v>6011600000</v>
+        <v>5449000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3821,13 +3727,13 @@
         <v>2016</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>96943</v>
+        <v>789570</v>
       </c>
       <c r="D147">
-        <v>1868027000</v>
+        <v>9455123000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3838,10 +3744,10 @@
         <v>133</v>
       </c>
       <c r="C148">
-        <v>947484</v>
+        <v>1048477</v>
       </c>
       <c r="D148">
-        <v>4463556000</v>
+        <v>1116854000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3852,10 +3758,10 @@
         <v>134</v>
       </c>
       <c r="C149">
-        <v>711404</v>
+        <v>1590955</v>
       </c>
       <c r="D149">
-        <v>1966814000</v>
+        <v>329141000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3866,10 +3772,10 @@
         <v>135</v>
       </c>
       <c r="C150">
-        <v>1262039</v>
+        <v>18926</v>
       </c>
       <c r="D150">
-        <v>1275443000</v>
+        <v>17470000000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3877,13 +3783,13 @@
         <v>2016</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="C151">
-        <v>1058057</v>
+        <v>1447669</v>
       </c>
       <c r="D151">
-        <v>2317674000</v>
+        <v>277335000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3891,13 +3797,13 @@
         <v>2016</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C152">
-        <v>54480</v>
+        <v>1126328</v>
       </c>
       <c r="D152">
-        <v>2334200000</v>
+        <v>12394100000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3905,13 +3811,13 @@
         <v>2016</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153">
-        <v>29989</v>
+        <v>1324424</v>
       </c>
       <c r="D153">
-        <v>15416900000</v>
+        <v>8773564000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3919,13 +3825,13 @@
         <v>2016</v>
       </c>
       <c r="B154" t="s">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="C154">
-        <v>20286</v>
+        <v>1384905</v>
       </c>
       <c r="D154">
-        <v>5449000000</v>
+        <v>379724000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3936,10 +3842,10 @@
         <v>139</v>
       </c>
       <c r="C155">
-        <v>789570</v>
+        <v>877890</v>
       </c>
       <c r="D155">
-        <v>9455123000</v>
+        <v>3418265000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3950,10 +3856,10 @@
         <v>140</v>
       </c>
       <c r="C156">
-        <v>1048477</v>
+        <v>1086222</v>
       </c>
       <c r="D156">
-        <v>1116854000</v>
+        <v>2340049000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3964,10 +3870,10 @@
         <v>141</v>
       </c>
       <c r="C157">
-        <v>1590955</v>
+        <v>1579298</v>
       </c>
       <c r="D157">
-        <v>329141000</v>
+        <v>5590950000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3978,10 +3884,10 @@
         <v>142</v>
       </c>
       <c r="C158">
-        <v>912595</v>
+        <v>1022079</v>
       </c>
       <c r="D158">
-        <v>329141000</v>
+        <v>7515000000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3989,13 +3895,13 @@
         <v>2016</v>
       </c>
       <c r="B159" t="s">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="C159">
-        <v>23217</v>
+        <v>943452</v>
       </c>
       <c r="D159">
-        <v>329141000</v>
+        <v>2931188000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -4003,13 +3909,13 @@
         <v>2016</v>
       </c>
       <c r="B160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C160">
-        <v>18926</v>
+        <v>859737</v>
       </c>
       <c r="D160">
-        <v>17470000000</v>
+        <v>2832700000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -4017,13 +3923,13 @@
         <v>2016</v>
       </c>
       <c r="B161" t="s">
-        <v>402</v>
+        <v>145</v>
       </c>
       <c r="C161">
-        <v>1403568</v>
+        <v>912593</v>
       </c>
       <c r="D161">
-        <v>17470000000</v>
+        <v>833778000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -4031,13 +3937,13 @@
         <v>2016</v>
       </c>
       <c r="B162" t="s">
-        <v>438</v>
+        <v>146</v>
       </c>
       <c r="C162">
-        <v>1447669</v>
+        <v>1025378</v>
       </c>
       <c r="D162">
-        <v>277335000</v>
+        <v>941533000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -4045,13 +3951,13 @@
         <v>2016</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C163">
-        <v>1126328</v>
+        <v>1336920</v>
       </c>
       <c r="D163">
-        <v>12394100000</v>
+        <v>4712000000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -4059,13 +3965,13 @@
         <v>2016</v>
       </c>
       <c r="B164" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C164">
-        <v>1324424</v>
+        <v>1121788</v>
       </c>
       <c r="D164">
-        <v>8773564000</v>
+        <v>3018665000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -4073,13 +3979,13 @@
         <v>2016</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C165">
-        <v>1384905</v>
+        <v>62996</v>
       </c>
       <c r="D165">
-        <v>379724000</v>
+        <v>7357000000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -4087,13 +3993,13 @@
         <v>2016</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C166">
-        <v>877890</v>
+        <v>1000697</v>
       </c>
       <c r="D166">
-        <v>3418265000</v>
+        <v>2167423000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -4101,13 +4007,13 @@
         <v>2016</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C167">
-        <v>1086222</v>
+        <v>352541</v>
       </c>
       <c r="D167">
-        <v>2340049000</v>
+        <v>3320000000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -4115,13 +4021,13 @@
         <v>2016</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C168">
-        <v>1579298</v>
+        <v>1140859</v>
       </c>
       <c r="D168">
-        <v>5590950000</v>
+        <v>37560603000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4129,13 +4035,13 @@
         <v>2016</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C169">
-        <v>1022079</v>
+        <v>1002047</v>
       </c>
       <c r="D169">
-        <v>7515000000</v>
+        <v>5546000000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -4143,13 +4049,13 @@
         <v>2016</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C170">
-        <v>943452</v>
+        <v>3570</v>
       </c>
       <c r="D170">
-        <v>2931188000</v>
+        <v>1283167000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4157,13 +4063,13 @@
         <v>2016</v>
       </c>
       <c r="B171" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C171">
-        <v>859737</v>
+        <v>60086</v>
       </c>
       <c r="D171">
-        <v>2832700000</v>
+        <v>13105000000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4171,13 +4077,13 @@
         <v>2016</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>406</v>
       </c>
       <c r="C172">
-        <v>912593</v>
+        <v>1596532</v>
       </c>
       <c r="D172">
-        <v>833778000</v>
+        <v>327969000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -4185,13 +4091,13 @@
         <v>2016</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="C173">
-        <v>1025378</v>
+        <v>1308161</v>
       </c>
       <c r="D173">
-        <v>941533000</v>
+        <v>27326000000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -4199,13 +4105,13 @@
         <v>2016</v>
       </c>
       <c r="B174" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C174">
-        <v>1336920</v>
+        <v>1094285</v>
       </c>
       <c r="D174">
-        <v>4712000000</v>
+        <v>552900000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4213,13 +4119,13 @@
         <v>2016</v>
       </c>
       <c r="B175" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C175">
-        <v>1121788</v>
+        <v>946581</v>
       </c>
       <c r="D175">
-        <v>3018665000</v>
+        <v>1413698000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -4227,13 +4133,13 @@
         <v>2016</v>
       </c>
       <c r="B176" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C176">
-        <v>62996</v>
+        <v>879169</v>
       </c>
       <c r="D176">
-        <v>7357000000</v>
+        <v>1105719000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -4241,13 +4147,13 @@
         <v>2016</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C177">
-        <v>1000697</v>
+        <v>783280</v>
       </c>
       <c r="D177">
-        <v>2167423000</v>
+        <v>902244000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -4255,13 +4161,13 @@
         <v>2016</v>
       </c>
       <c r="B178" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C178">
-        <v>352541</v>
+        <v>749251</v>
       </c>
       <c r="D178">
-        <v>3320000000</v>
+        <v>2444540000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -4269,13 +4175,13 @@
         <v>2016</v>
       </c>
       <c r="B179" t="s">
-        <v>160</v>
+        <v>423</v>
       </c>
       <c r="C179">
-        <v>1140859</v>
+        <v>1124140</v>
       </c>
       <c r="D179">
-        <v>37560603000</v>
+        <v>99376000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -4286,10 +4192,10 @@
         <v>161</v>
       </c>
       <c r="C180">
-        <v>1002047</v>
+        <v>1120193</v>
       </c>
       <c r="D180">
-        <v>5546000000</v>
+        <v>3705000000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -4300,10 +4206,10 @@
         <v>162</v>
       </c>
       <c r="C181">
-        <v>3570</v>
+        <v>1306830</v>
       </c>
       <c r="D181">
-        <v>1283167000</v>
+        <v>5389000000</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -4311,13 +4217,13 @@
         <v>2016</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="C182">
-        <v>60086</v>
+        <v>46080</v>
       </c>
       <c r="D182">
-        <v>13105000000</v>
+        <v>5019822000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -4325,13 +4231,13 @@
         <v>2016</v>
       </c>
       <c r="B183" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C183">
-        <v>1596532</v>
+        <v>877212</v>
       </c>
       <c r="D183">
-        <v>327969000</v>
+        <v>3574000000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -4339,13 +4245,13 @@
         <v>2016</v>
       </c>
       <c r="B184" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="C184">
-        <v>1308161</v>
+        <v>48465</v>
       </c>
       <c r="D184">
-        <v>27326000000</v>
+        <v>9523224000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -4353,13 +4259,13 @@
         <v>2016</v>
       </c>
       <c r="B185" t="s">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="C185">
-        <v>1660134</v>
+        <v>1174922</v>
       </c>
       <c r="D185">
-        <v>27326000000</v>
+        <v>4466297000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -4367,13 +4273,13 @@
         <v>2016</v>
       </c>
       <c r="B186" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C186">
-        <v>1094285</v>
+        <v>1604778</v>
       </c>
       <c r="D186">
-        <v>552900000</v>
+        <v>2610726000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -4381,13 +4287,13 @@
         <v>2016</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C187">
-        <v>946581</v>
+        <v>832101</v>
       </c>
       <c r="D187">
-        <v>1413698000</v>
+        <v>2113043000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4395,13 +4301,13 @@
         <v>2016</v>
       </c>
       <c r="B188" t="s">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="C188">
-        <v>879169</v>
+        <v>1624899</v>
       </c>
       <c r="D188">
-        <v>1105719000</v>
+        <v>2238764000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4412,10 +4318,10 @@
         <v>167</v>
       </c>
       <c r="C189">
-        <v>1679273</v>
+        <v>818479</v>
       </c>
       <c r="D189">
-        <v>1105719000</v>
+        <v>3745300000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4426,10 +4332,10 @@
         <v>168</v>
       </c>
       <c r="C190">
-        <v>783280</v>
+        <v>779152</v>
       </c>
       <c r="D190">
-        <v>902244000</v>
+        <v>366970000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -4440,10 +4346,10 @@
         <v>169</v>
       </c>
       <c r="C191">
-        <v>749251</v>
+        <v>1278021</v>
       </c>
       <c r="D191">
-        <v>2444540000</v>
+        <v>369919000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -4451,13 +4357,13 @@
         <v>2016</v>
       </c>
       <c r="B192" t="s">
-        <v>458</v>
+        <v>170</v>
       </c>
       <c r="C192">
-        <v>1124140</v>
+        <v>1070750</v>
       </c>
       <c r="D192">
-        <v>99376000</v>
+        <v>5430000000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -4465,13 +4371,13 @@
         <v>2016</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C193">
-        <v>1120193</v>
+        <v>1623613</v>
       </c>
       <c r="D193">
-        <v>3705000000</v>
+        <v>11076900000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -4482,10 +4388,10 @@
         <v>171</v>
       </c>
       <c r="C194">
-        <v>1306830</v>
+        <v>217346</v>
       </c>
       <c r="D194">
-        <v>5389000000</v>
+        <v>13788000000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -4493,13 +4399,13 @@
         <v>2016</v>
       </c>
       <c r="B195" t="s">
-        <v>405</v>
+        <v>172</v>
       </c>
       <c r="C195">
-        <v>46080</v>
+        <v>1365135</v>
       </c>
       <c r="D195">
-        <v>5019822000</v>
+        <v>5422900000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4507,13 +4413,13 @@
         <v>2016</v>
       </c>
       <c r="B196" t="s">
-        <v>440</v>
+        <v>173</v>
       </c>
       <c r="C196">
-        <v>877212</v>
+        <v>8818</v>
       </c>
       <c r="D196">
-        <v>3574000000</v>
+        <v>6086500000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -4521,13 +4427,13 @@
         <v>2016</v>
       </c>
       <c r="B197" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="C197">
-        <v>48465</v>
+        <v>1513761</v>
       </c>
       <c r="D197">
-        <v>9523224000</v>
+        <v>4874340000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -4535,13 +4441,13 @@
         <v>2016</v>
       </c>
       <c r="B198" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="C198">
-        <v>1174922</v>
+        <v>105770</v>
       </c>
       <c r="D198">
-        <v>4466297000</v>
+        <v>1509100000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -4552,10 +4458,10 @@
         <v>174</v>
       </c>
       <c r="C199">
-        <v>1604778</v>
+        <v>1124610</v>
       </c>
       <c r="D199">
-        <v>2610726000</v>
+        <v>7093000000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -4566,10 +4472,10 @@
         <v>175</v>
       </c>
       <c r="C200">
-        <v>832101</v>
+        <v>1067701</v>
       </c>
       <c r="D200">
-        <v>2113043000</v>
+        <v>1523000000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -4577,13 +4483,13 @@
         <v>2016</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="C201">
-        <v>1624899</v>
+        <v>1145197</v>
       </c>
       <c r="D201">
-        <v>2238764000</v>
+        <v>366989000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4591,13 +4497,13 @@
         <v>2016</v>
       </c>
       <c r="B202" t="s">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="C202">
-        <v>818479</v>
+        <v>6201</v>
       </c>
       <c r="D202">
-        <v>3745300000</v>
+        <v>40180000000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -4608,10 +4514,10 @@
         <v>177</v>
       </c>
       <c r="C203">
-        <v>779152</v>
+        <v>1286681</v>
       </c>
       <c r="D203">
-        <v>366970000</v>
+        <v>2472628000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4622,10 +4528,10 @@
         <v>178</v>
       </c>
       <c r="C204">
-        <v>1278021</v>
+        <v>822416</v>
       </c>
       <c r="D204">
-        <v>369919000</v>
+        <v>2493078000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4636,10 +4542,10 @@
         <v>179</v>
       </c>
       <c r="C205">
-        <v>1070750</v>
+        <v>864749</v>
       </c>
       <c r="D205">
-        <v>5430000000</v>
+        <v>2362200000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -4647,13 +4553,13 @@
         <v>2016</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>180</v>
       </c>
       <c r="C206">
-        <v>1623613</v>
+        <v>352915</v>
       </c>
       <c r="D206">
-        <v>11076900000</v>
+        <v>9766210000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4661,13 +4567,13 @@
         <v>2016</v>
       </c>
       <c r="B207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C207">
-        <v>217346</v>
+        <v>764622</v>
       </c>
       <c r="D207">
-        <v>13788000000</v>
+        <v>3498682000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -4675,13 +4581,13 @@
         <v>2016</v>
       </c>
       <c r="B208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C208">
-        <v>1365135</v>
+        <v>11544</v>
       </c>
       <c r="D208">
-        <v>5422900000</v>
+        <v>7654184000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4689,13 +4595,13 @@
         <v>2016</v>
       </c>
       <c r="B209" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C209">
-        <v>8818</v>
+        <v>79282</v>
       </c>
       <c r="D209">
-        <v>6086500000</v>
+        <v>1766629000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4703,13 +4609,13 @@
         <v>2016</v>
       </c>
       <c r="B210" t="s">
-        <v>441</v>
+        <v>184</v>
       </c>
       <c r="C210">
-        <v>1513761</v>
+        <v>1013237</v>
       </c>
       <c r="D210">
-        <v>4874340000</v>
+        <v>1127092000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4717,13 +4623,13 @@
         <v>2016</v>
       </c>
       <c r="B211" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="C211">
-        <v>105770</v>
+        <v>1636023</v>
       </c>
       <c r="D211">
-        <v>1509100000</v>
+        <v>14171800000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -4731,13 +4637,13 @@
         <v>2016</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C212">
-        <v>1124610</v>
+        <v>31791</v>
       </c>
       <c r="D212">
-        <v>7093000000</v>
+        <v>2115517000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4745,13 +4651,13 @@
         <v>2016</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C213">
-        <v>1067701</v>
+        <v>1584509</v>
       </c>
       <c r="D213">
-        <v>1523000000</v>
+        <v>14415829000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4759,13 +4665,13 @@
         <v>2016</v>
       </c>
       <c r="B214" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C214">
-        <v>1145197</v>
+        <v>910606</v>
       </c>
       <c r="D214">
-        <v>366989000</v>
+        <v>614371000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4773,13 +4679,13 @@
         <v>2016</v>
       </c>
       <c r="B215" t="s">
-        <v>443</v>
+        <v>188</v>
       </c>
       <c r="C215">
-        <v>6201</v>
+        <v>1065696</v>
       </c>
       <c r="D215">
-        <v>40180000000</v>
+        <v>8584031000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4787,13 +4693,13 @@
         <v>2016</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="C216">
-        <v>1286681</v>
+        <v>1000228</v>
       </c>
       <c r="D216">
-        <v>2472628000</v>
+        <v>11571668000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -4801,13 +4707,13 @@
         <v>2016</v>
       </c>
       <c r="B217" t="s">
-        <v>187</v>
+        <v>412</v>
       </c>
       <c r="C217">
-        <v>822416</v>
+        <v>1507385</v>
       </c>
       <c r="D217">
-        <v>2493078000</v>
+        <v>1454823000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4815,13 +4721,13 @@
         <v>2016</v>
       </c>
       <c r="B218" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C218">
-        <v>864749</v>
+        <v>1219601</v>
       </c>
       <c r="D218">
-        <v>2362200000</v>
+        <v>8284000000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4829,13 +4735,13 @@
         <v>2016</v>
       </c>
       <c r="B219" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C219">
-        <v>352915</v>
+        <v>72331</v>
       </c>
       <c r="D219">
-        <v>9766210000</v>
+        <v>1808994000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4843,13 +4749,13 @@
         <v>2016</v>
       </c>
       <c r="B220" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C220">
-        <v>764622</v>
+        <v>72207</v>
       </c>
       <c r="D220">
-        <v>3498682000</v>
+        <v>3491000000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4857,13 +4763,13 @@
         <v>2016</v>
       </c>
       <c r="B221" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C221">
-        <v>11544</v>
+        <v>1519751</v>
       </c>
       <c r="D221">
-        <v>7654184000</v>
+        <v>4984900000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4871,13 +4777,13 @@
         <v>2016</v>
       </c>
       <c r="B222" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C222">
-        <v>79282</v>
+        <v>101778</v>
       </c>
       <c r="D222">
-        <v>1766629000</v>
+        <v>4650000000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4885,13 +4791,13 @@
         <v>2016</v>
       </c>
       <c r="B223" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C223">
-        <v>1013237</v>
+        <v>1528396</v>
       </c>
       <c r="D223">
-        <v>1127092000</v>
+        <v>424446000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -4899,13 +4805,13 @@
         <v>2016</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="C224">
-        <v>1636023</v>
+        <v>1437578</v>
       </c>
       <c r="D224">
-        <v>14171800000</v>
+        <v>1569841000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4913,13 +4819,13 @@
         <v>2016</v>
       </c>
       <c r="B225" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C225">
-        <v>31791</v>
+        <v>1463172</v>
       </c>
       <c r="D225">
-        <v>2115517000</v>
+        <v>311999000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -4927,13 +4833,13 @@
         <v>2016</v>
       </c>
       <c r="B226" t="s">
-        <v>195</v>
+        <v>380</v>
       </c>
       <c r="C226">
-        <v>1584509</v>
+        <v>1575965</v>
       </c>
       <c r="D226">
-        <v>14415829000</v>
+        <v>238799000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -4941,13 +4847,13 @@
         <v>2016</v>
       </c>
       <c r="B227" t="s">
-        <v>196</v>
+        <v>381</v>
       </c>
       <c r="C227">
-        <v>910606</v>
+        <v>812011</v>
       </c>
       <c r="D227">
-        <v>614371000</v>
+        <v>179884000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4955,13 +4861,13 @@
         <v>2016</v>
       </c>
       <c r="B228" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C228">
-        <v>1065696</v>
+        <v>1013871</v>
       </c>
       <c r="D228">
-        <v>8584031000</v>
+        <v>2532000000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4969,13 +4875,13 @@
         <v>2016</v>
       </c>
       <c r="B229" t="s">
-        <v>408</v>
+        <v>196</v>
       </c>
       <c r="C229">
-        <v>1000228</v>
+        <v>1309108</v>
       </c>
       <c r="D229">
-        <v>11571668000</v>
+        <v>1018460000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4983,13 +4889,13 @@
         <v>2016</v>
       </c>
       <c r="B230" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="C230">
-        <v>1507385</v>
+        <v>898174</v>
       </c>
       <c r="D230">
-        <v>1454823000</v>
+        <v>11521511000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -4997,13 +4903,13 @@
         <v>2016</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>197</v>
       </c>
       <c r="C231">
-        <v>1062579</v>
+        <v>106640</v>
       </c>
       <c r="D231">
-        <v>1454823000</v>
+        <v>20718000000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -5014,10 +4920,10 @@
         <v>198</v>
       </c>
       <c r="C232">
-        <v>1219601</v>
+        <v>915913</v>
       </c>
       <c r="D232">
-        <v>8284000000</v>
+        <v>2677203000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -5028,10 +4934,10 @@
         <v>199</v>
       </c>
       <c r="C233">
-        <v>72331</v>
+        <v>1021635</v>
       </c>
       <c r="D233">
-        <v>1808994000</v>
+        <v>2259200000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -5042,10 +4948,10 @@
         <v>200</v>
       </c>
       <c r="C234">
-        <v>72207</v>
+        <v>1335258</v>
       </c>
       <c r="D234">
-        <v>3491000000</v>
+        <v>8354934000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -5056,10 +4962,10 @@
         <v>201</v>
       </c>
       <c r="C235">
-        <v>1519751</v>
+        <v>1158449</v>
       </c>
       <c r="D235">
-        <v>4984900000</v>
+        <v>2082891000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -5070,10 +4976,10 @@
         <v>202</v>
       </c>
       <c r="C236">
-        <v>1385867</v>
+        <v>51644</v>
       </c>
       <c r="D236">
-        <v>4984900000</v>
+        <v>7846600000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -5084,10 +4990,10 @@
         <v>203</v>
       </c>
       <c r="C237">
-        <v>101778</v>
+        <v>851205</v>
       </c>
       <c r="D237">
-        <v>4650000000</v>
+        <v>520753000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -5098,10 +5004,10 @@
         <v>204</v>
       </c>
       <c r="C238">
-        <v>110621</v>
+        <v>857005</v>
       </c>
       <c r="D238">
-        <v>4650000000</v>
+        <v>1140533000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -5112,10 +5018,10 @@
         <v>205</v>
       </c>
       <c r="C239">
-        <v>1528396</v>
+        <v>1004980</v>
       </c>
       <c r="D239">
-        <v>424446000</v>
+        <v>17666000000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -5123,13 +5029,13 @@
         <v>2016</v>
       </c>
       <c r="B240" t="s">
-        <v>409</v>
+        <v>206</v>
       </c>
       <c r="C240">
-        <v>1437578</v>
+        <v>350894</v>
       </c>
       <c r="D240">
-        <v>1569841000</v>
+        <v>1401545000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -5137,13 +5043,13 @@
         <v>2016</v>
       </c>
       <c r="B241" t="s">
-        <v>410</v>
+        <v>207</v>
       </c>
       <c r="C241">
-        <v>1463172</v>
+        <v>884614</v>
       </c>
       <c r="D241">
-        <v>311999000</v>
+        <v>5685700000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -5151,13 +5057,13 @@
         <v>2016</v>
       </c>
       <c r="B242" t="s">
-        <v>411</v>
+        <v>208</v>
       </c>
       <c r="C242">
-        <v>1575965</v>
+        <v>791915</v>
       </c>
       <c r="D242">
-        <v>238799000</v>
+        <v>1923108000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -5165,13 +5071,13 @@
         <v>2016</v>
       </c>
       <c r="B243" t="s">
-        <v>412</v>
+        <v>209</v>
       </c>
       <c r="C243">
-        <v>812011</v>
+        <v>929940</v>
       </c>
       <c r="D243">
-        <v>179884000</v>
+        <v>472344000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -5179,13 +5085,13 @@
         <v>2016</v>
       </c>
       <c r="B244" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C244">
-        <v>1013871</v>
+        <v>1596783</v>
       </c>
       <c r="D244">
-        <v>2532000000</v>
+        <v>1848100000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -5193,13 +5099,13 @@
         <v>2016</v>
       </c>
       <c r="B245" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C245">
-        <v>1309108</v>
+        <v>945841</v>
       </c>
       <c r="D245">
-        <v>1018460000</v>
+        <v>2570803000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -5207,13 +5113,13 @@
         <v>2016</v>
       </c>
       <c r="B246" t="s">
-        <v>413</v>
+        <v>212</v>
       </c>
       <c r="C246">
-        <v>898174</v>
+        <v>1069202</v>
       </c>
       <c r="D246">
-        <v>11521511000</v>
+        <v>3641600000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -5221,13 +5127,13 @@
         <v>2016</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C247">
-        <v>106640</v>
+        <v>815094</v>
       </c>
       <c r="D247">
-        <v>20718000000</v>
+        <v>329543000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -5235,13 +5141,13 @@
         <v>2016</v>
       </c>
       <c r="B248" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C248">
-        <v>1324404</v>
+        <v>913144</v>
       </c>
       <c r="D248">
-        <v>20718000000</v>
+        <v>353967000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -5249,13 +5155,13 @@
         <v>2016</v>
       </c>
       <c r="B249" t="s">
-        <v>210</v>
+        <v>383</v>
       </c>
       <c r="C249">
-        <v>1692819</v>
+        <v>1166003</v>
       </c>
       <c r="D249">
-        <v>20718000000</v>
+        <v>14619400000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -5263,13 +5169,13 @@
         <v>2016</v>
       </c>
       <c r="B250" t="s">
-        <v>211</v>
+        <v>384</v>
       </c>
       <c r="C250">
-        <v>915913</v>
+        <v>1538990</v>
       </c>
       <c r="D250">
-        <v>2677203000</v>
+        <v>376343000</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -5277,13 +5183,13 @@
         <v>2016</v>
       </c>
       <c r="B251" t="s">
-        <v>212</v>
+        <v>385</v>
       </c>
       <c r="C251">
-        <v>1021635</v>
+        <v>1535929</v>
       </c>
       <c r="D251">
-        <v>2259200000</v>
+        <v>2548400000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -5291,13 +5197,13 @@
         <v>2016</v>
       </c>
       <c r="B252" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C252">
-        <v>1335258</v>
+        <v>1267238</v>
       </c>
       <c r="D252">
-        <v>8354934000</v>
+        <v>7531780000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -5305,13 +5211,13 @@
         <v>2016</v>
       </c>
       <c r="B253" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C253">
-        <v>1158449</v>
+        <v>1042046</v>
       </c>
       <c r="D253">
-        <v>2082891000</v>
+        <v>6498000000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -5319,13 +5225,13 @@
         <v>2016</v>
       </c>
       <c r="B254" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C254">
-        <v>1020569</v>
+        <v>858339</v>
       </c>
       <c r="D254">
-        <v>2082891000</v>
+        <v>3877000000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -5333,13 +5239,13 @@
         <v>2016</v>
       </c>
       <c r="B255" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C255">
-        <v>51644</v>
+        <v>1179929</v>
       </c>
       <c r="D255">
-        <v>7846600000</v>
+        <v>17782000000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5347,13 +5253,13 @@
         <v>2016</v>
       </c>
       <c r="B256" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C256">
-        <v>851205</v>
+        <v>766421</v>
       </c>
       <c r="D256">
-        <v>520753000</v>
+        <v>5931000000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -5361,13 +5267,13 @@
         <v>2016</v>
       </c>
       <c r="B257" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C257">
-        <v>857005</v>
+        <v>1232524</v>
       </c>
       <c r="D257">
-        <v>1140533000</v>
+        <v>1487973000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -5375,13 +5281,13 @@
         <v>2016</v>
       </c>
       <c r="B258" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C258">
-        <v>1004980</v>
+        <v>1029199</v>
       </c>
       <c r="D258">
-        <v>17666000000</v>
+        <v>519829000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -5389,13 +5295,13 @@
         <v>2016</v>
       </c>
       <c r="B259" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C259">
-        <v>350894</v>
+        <v>879101</v>
       </c>
       <c r="D259">
-        <v>1401545000</v>
+        <v>1170792000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -5403,13 +5309,13 @@
         <v>2016</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="C260">
-        <v>884614</v>
+        <v>1608249</v>
       </c>
       <c r="D260">
-        <v>5685700000</v>
+        <v>1721700000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -5417,13 +5323,13 @@
         <v>2016</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C261">
-        <v>791915</v>
+        <v>922864</v>
       </c>
       <c r="D261">
-        <v>1923108000</v>
+        <v>995854000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -5431,13 +5337,13 @@
         <v>2016</v>
       </c>
       <c r="B262" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C262">
-        <v>929940</v>
+        <v>1116132</v>
       </c>
       <c r="D262">
-        <v>472344000</v>
+        <v>4491800000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -5445,13 +5351,13 @@
         <v>2016</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="C263">
-        <v>1596783</v>
+        <v>1280452</v>
       </c>
       <c r="D263">
-        <v>1848100000</v>
+        <v>103618000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -5462,10 +5368,10 @@
         <v>224</v>
       </c>
       <c r="C264">
-        <v>945841</v>
+        <v>814453</v>
       </c>
       <c r="D264">
-        <v>2570803000</v>
+        <v>13264000000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -5476,10 +5382,10 @@
         <v>225</v>
       </c>
       <c r="C265">
-        <v>1069202</v>
+        <v>1005284</v>
       </c>
       <c r="D265">
-        <v>3641600000</v>
+        <v>198886000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -5490,10 +5396,10 @@
         <v>226</v>
       </c>
       <c r="C266">
-        <v>815094</v>
+        <v>1043604</v>
       </c>
       <c r="D266">
-        <v>329543000</v>
+        <v>4990100000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5504,10 +5410,10 @@
         <v>227</v>
       </c>
       <c r="C267">
-        <v>913144</v>
+        <v>861884</v>
       </c>
       <c r="D267">
-        <v>353967000</v>
+        <v>8613400000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5515,13 +5421,13 @@
         <v>2016</v>
       </c>
       <c r="B268" t="s">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="C268">
-        <v>1166003</v>
+        <v>1477294</v>
       </c>
       <c r="D268">
-        <v>14619400000</v>
+        <v>3202288000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5529,13 +5435,13 @@
         <v>2016</v>
       </c>
       <c r="B269" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="C269">
-        <v>1538990</v>
+        <v>1101302</v>
       </c>
       <c r="D269">
-        <v>376343000</v>
+        <v>1175270000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5543,13 +5449,13 @@
         <v>2016</v>
       </c>
       <c r="B270" t="s">
-        <v>416</v>
+        <v>230</v>
       </c>
       <c r="C270">
-        <v>1535929</v>
+        <v>1397911</v>
       </c>
       <c r="D270">
-        <v>2548400000</v>
+        <v>4049383000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -5557,13 +5463,13 @@
         <v>2016</v>
       </c>
       <c r="B271" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="C271">
-        <v>1702780</v>
+        <v>1040971</v>
       </c>
       <c r="D271">
-        <v>2548400000</v>
+        <v>1863981000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -5571,13 +5477,13 @@
         <v>2016</v>
       </c>
       <c r="B272" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C272">
-        <v>1267238</v>
+        <v>1100682</v>
       </c>
       <c r="D272">
-        <v>7531780000</v>
+        <v>1681432000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -5585,13 +5491,13 @@
         <v>2016</v>
       </c>
       <c r="B273" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C273">
-        <v>1042046</v>
+        <v>896622</v>
       </c>
       <c r="D273">
-        <v>6498000000</v>
+        <v>2330934000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -5599,13 +5505,13 @@
         <v>2016</v>
       </c>
       <c r="B274" t="s">
-        <v>448</v>
+        <v>234</v>
       </c>
       <c r="C274">
-        <v>858339</v>
+        <v>874015</v>
       </c>
       <c r="D274">
-        <v>3877000000</v>
+        <v>346620000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -5613,13 +5519,13 @@
         <v>2016</v>
       </c>
       <c r="B275" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C275">
-        <v>1179929</v>
+        <v>1492633</v>
       </c>
       <c r="D275">
-        <v>17782000000</v>
+        <v>6309000000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -5627,13 +5533,13 @@
         <v>2016</v>
       </c>
       <c r="B276" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C276">
-        <v>766421</v>
+        <v>1144519</v>
       </c>
       <c r="D276">
-        <v>5931000000</v>
+        <v>42679000000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5641,13 +5547,13 @@
         <v>2016</v>
       </c>
       <c r="B277" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C277">
-        <v>1232524</v>
+        <v>354908</v>
       </c>
       <c r="D277">
-        <v>1487973000</v>
+        <v>1662167000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -5655,13 +5561,13 @@
         <v>2016</v>
       </c>
       <c r="B278" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C278">
-        <v>1029199</v>
+        <v>885639</v>
       </c>
       <c r="D278">
-        <v>519829000</v>
+        <v>18686000000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -5669,13 +5575,13 @@
         <v>2016</v>
       </c>
       <c r="B279" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C279">
-        <v>879101</v>
+        <v>38777</v>
       </c>
       <c r="D279">
-        <v>1170792000</v>
+        <v>6618000000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -5683,13 +5589,13 @@
         <v>2016</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>415</v>
       </c>
       <c r="C280">
-        <v>12208</v>
+        <v>1404655</v>
       </c>
       <c r="D280">
-        <v>1170792000</v>
+        <v>270967000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -5697,13 +5603,13 @@
         <v>2016</v>
       </c>
       <c r="B281" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="C281">
-        <v>1608249</v>
+        <v>1465128</v>
       </c>
       <c r="D281">
-        <v>1721700000</v>
+        <v>784667000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -5711,13 +5617,13 @@
         <v>2016</v>
       </c>
       <c r="B282" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C282">
-        <v>922864</v>
+        <v>1212458</v>
       </c>
       <c r="D282">
-        <v>995854000</v>
+        <v>375496000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5725,13 +5631,13 @@
         <v>2016</v>
       </c>
       <c r="B283" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C283">
-        <v>1116132</v>
+        <v>1364250</v>
       </c>
       <c r="D283">
-        <v>4491800000</v>
+        <v>742551000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5739,13 +5645,13 @@
         <v>2016</v>
       </c>
       <c r="B284" t="s">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="C284">
-        <v>1280452</v>
+        <v>914208</v>
       </c>
       <c r="D284">
-        <v>103618000</v>
+        <v>4734400000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -5753,13 +5659,13 @@
         <v>2016</v>
       </c>
       <c r="B285" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C285">
-        <v>814453</v>
+        <v>1390844</v>
       </c>
       <c r="D285">
-        <v>13264000000</v>
+        <v>2810000000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -5767,13 +5673,13 @@
         <v>2016</v>
       </c>
       <c r="B286" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C286">
-        <v>1005284</v>
+        <v>1364885</v>
       </c>
       <c r="D286">
-        <v>198886000</v>
+        <v>1570000000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -5781,13 +5687,13 @@
         <v>2016</v>
       </c>
       <c r="B287" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="C287">
-        <v>1043604</v>
+        <v>1553023</v>
       </c>
       <c r="D287">
-        <v>4990100000</v>
+        <v>137400000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -5795,13 +5701,13 @@
         <v>2016</v>
       </c>
       <c r="B288" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C288">
-        <v>861884</v>
+        <v>1472787</v>
       </c>
       <c r="D288">
-        <v>8613400000</v>
+        <v>5575846000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5809,13 +5715,13 @@
         <v>2016</v>
       </c>
       <c r="B289" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="C289">
-        <v>1015820</v>
+        <v>1613859</v>
       </c>
       <c r="D289">
-        <v>8613400000</v>
+        <v>1811711000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -5823,13 +5729,13 @@
         <v>2016</v>
       </c>
       <c r="B290" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C290">
-        <v>355811</v>
+        <v>16058</v>
       </c>
       <c r="D290">
-        <v>8613400000</v>
+        <v>3744053000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5837,13 +5743,13 @@
         <v>2016</v>
       </c>
       <c r="B291" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C291">
-        <v>1477294</v>
+        <v>1637207</v>
       </c>
       <c r="D291">
-        <v>3202288000</v>
+        <v>378241000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -5851,13 +5757,13 @@
         <v>2016</v>
       </c>
       <c r="B292" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="C292">
-        <v>1101302</v>
+        <v>1527469</v>
       </c>
       <c r="D292">
-        <v>1175270000</v>
+        <v>4107000000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -5865,13 +5771,13 @@
         <v>2016</v>
       </c>
       <c r="B293" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C293">
-        <v>1397911</v>
+        <v>936395</v>
       </c>
       <c r="D293">
-        <v>4049383000</v>
+        <v>2600573000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5879,13 +5785,13 @@
         <v>2016</v>
       </c>
       <c r="B294" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C294">
-        <v>1040971</v>
+        <v>74260</v>
       </c>
       <c r="D294">
-        <v>1863981000</v>
+        <v>5900500000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5893,13 +5799,13 @@
         <v>2016</v>
       </c>
       <c r="B295" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C295">
-        <v>1100682</v>
+        <v>1360604</v>
       </c>
       <c r="D295">
-        <v>1681432000</v>
+        <v>460928000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5907,13 +5813,13 @@
         <v>2016</v>
       </c>
       <c r="B296" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C296">
-        <v>896622</v>
+        <v>30625</v>
       </c>
       <c r="D296">
-        <v>2330934000</v>
+        <v>3991462000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5921,13 +5827,13 @@
         <v>2016</v>
       </c>
       <c r="B297" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C297">
-        <v>874015</v>
+        <v>1357204</v>
       </c>
       <c r="D297">
-        <v>346620000</v>
+        <v>828889000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5935,13 +5841,13 @@
         <v>2016</v>
       </c>
       <c r="B298" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C298">
-        <v>1492633</v>
+        <v>7536</v>
       </c>
       <c r="D298">
-        <v>6309000000</v>
+        <v>23282020000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -5949,13 +5855,13 @@
         <v>2016</v>
       </c>
       <c r="B299" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C299">
-        <v>1144519</v>
+        <v>775158</v>
       </c>
       <c r="D299">
-        <v>42679000000</v>
+        <v>6279200000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -5963,13 +5869,13 @@
         <v>2016</v>
       </c>
       <c r="B300" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C300">
-        <v>354908</v>
+        <v>1486957</v>
       </c>
       <c r="D300">
-        <v>1662167000</v>
+        <v>1550573000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -5977,13 +5883,13 @@
         <v>2016</v>
       </c>
       <c r="B301" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
       <c r="C301">
-        <v>885639</v>
+        <v>216228</v>
       </c>
       <c r="D301">
-        <v>18686000000</v>
+        <v>2405400000</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -5991,13 +5897,13 @@
         <v>2016</v>
       </c>
       <c r="B302" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C302">
-        <v>38777</v>
+        <v>5513</v>
       </c>
       <c r="D302">
-        <v>6618000000</v>
+        <v>11046500000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -6005,13 +5911,13 @@
         <v>2016</v>
       </c>
       <c r="B303" t="s">
-        <v>450</v>
+        <v>257</v>
       </c>
       <c r="C303">
-        <v>1404655</v>
+        <v>67716</v>
       </c>
       <c r="D303">
-        <v>270967000</v>
+        <v>4128828000</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -6019,13 +5925,13 @@
         <v>2016</v>
       </c>
       <c r="B304" t="s">
-        <v>419</v>
+        <v>258</v>
       </c>
       <c r="C304">
-        <v>1465128</v>
+        <v>1022671</v>
       </c>
       <c r="D304">
-        <v>784667000</v>
+        <v>7777109000</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -6033,13 +5939,13 @@
         <v>2016</v>
       </c>
       <c r="B305" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C305">
-        <v>1212458</v>
+        <v>1616707</v>
       </c>
       <c r="D305">
-        <v>375496000</v>
+        <v>3380360000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -6047,13 +5953,13 @@
         <v>2016</v>
       </c>
       <c r="B306" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C306">
-        <v>1364250</v>
+        <v>1616862</v>
       </c>
       <c r="D306">
-        <v>742551000</v>
+        <v>4097399999.99999</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -6061,13 +5967,13 @@
         <v>2016</v>
       </c>
       <c r="B307" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C307">
-        <v>914208</v>
+        <v>1597033</v>
       </c>
       <c r="D307">
-        <v>4734400000</v>
+        <v>829620000</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -6075,13 +5981,13 @@
         <v>2016</v>
       </c>
       <c r="B308" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C308">
-        <v>1390844</v>
+        <v>58492</v>
       </c>
       <c r="D308">
-        <v>2810000000</v>
+        <v>3749900000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -6089,13 +5995,13 @@
         <v>2016</v>
       </c>
       <c r="B309" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C309">
-        <v>1364885</v>
+        <v>1617640</v>
       </c>
       <c r="D309">
-        <v>1570000000</v>
+        <v>846589000</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -6103,13 +6009,13 @@
         <v>2016</v>
       </c>
       <c r="B310" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="C310">
-        <v>1553023</v>
+        <v>25232</v>
       </c>
       <c r="D310">
-        <v>137400000</v>
+        <v>259211000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -6117,13 +6023,13 @@
         <v>2016</v>
       </c>
       <c r="B311" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C311">
-        <v>1472787</v>
+        <v>898293</v>
       </c>
       <c r="D311">
-        <v>5575846000</v>
+        <v>18353086000</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -6131,13 +6037,13 @@
         <v>2016</v>
       </c>
       <c r="B312" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C312">
-        <v>1441816</v>
+        <v>1037038</v>
       </c>
       <c r="D312">
-        <v>5575846000</v>
+        <v>7405000000</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -6145,13 +6051,13 @@
         <v>2016</v>
       </c>
       <c r="B313" t="s">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="C313">
-        <v>1613859</v>
+        <v>935494</v>
       </c>
       <c r="D313">
-        <v>1811711000</v>
+        <v>1228179000</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -6159,13 +6065,13 @@
         <v>2016</v>
       </c>
       <c r="B314" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="C314">
-        <v>16058</v>
+        <v>726958</v>
       </c>
       <c r="D314">
-        <v>3744053000</v>
+        <v>7122086000</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -6173,13 +6079,13 @@
         <v>2016</v>
       </c>
       <c r="B315" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C315">
-        <v>1637207</v>
+        <v>91767</v>
       </c>
       <c r="D315">
-        <v>378241000</v>
+        <v>4782877000</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -6187,13 +6093,13 @@
         <v>2016</v>
       </c>
       <c r="B316" t="s">
-        <v>420</v>
+        <v>268</v>
       </c>
       <c r="C316">
-        <v>1527469</v>
+        <v>1012100</v>
       </c>
       <c r="D316">
-        <v>4107000000</v>
+        <v>6778300000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -6201,13 +6107,13 @@
         <v>2016</v>
       </c>
       <c r="B317" t="s">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="C317">
-        <v>936395</v>
+        <v>1378992</v>
       </c>
       <c r="D317">
-        <v>2600573000</v>
+        <v>1618000000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -6215,13 +6121,13 @@
         <v>2016</v>
       </c>
       <c r="B318" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
       <c r="C318">
-        <v>74260</v>
+        <v>1370637</v>
       </c>
       <c r="D318">
-        <v>5900500000</v>
+        <v>364967000</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -6229,13 +6135,13 @@
         <v>2016</v>
       </c>
       <c r="B319" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C319">
-        <v>1360604</v>
+        <v>1177394</v>
       </c>
       <c r="D319">
-        <v>460928000</v>
+        <v>14061837000</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -6243,13 +6149,13 @@
         <v>2016</v>
       </c>
       <c r="B320" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C320">
-        <v>30625</v>
+        <v>861878</v>
       </c>
       <c r="D320">
-        <v>3991462000</v>
+        <v>3562342000</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -6257,13 +6163,13 @@
         <v>2016</v>
       </c>
       <c r="B321" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C321">
-        <v>1357204</v>
+        <v>105016</v>
       </c>
       <c r="D321">
-        <v>828889000</v>
+        <v>4220702000</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -6271,13 +6177,13 @@
         <v>2016</v>
       </c>
       <c r="B322" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C322">
-        <v>7536</v>
+        <v>1002517</v>
       </c>
       <c r="D322">
-        <v>23282020000</v>
+        <v>1948903000</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -6285,13 +6191,13 @@
         <v>2016</v>
       </c>
       <c r="B323" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C323">
-        <v>775158</v>
+        <v>1142417</v>
       </c>
       <c r="D323">
-        <v>6279200000</v>
+        <v>309879000</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -6299,13 +6205,13 @@
         <v>2016</v>
       </c>
       <c r="B324" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C324">
-        <v>1486957</v>
+        <v>71691</v>
       </c>
       <c r="D324">
-        <v>1550573000</v>
+        <v>1555342000</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -6313,13 +6219,13 @@
         <v>2016</v>
       </c>
       <c r="B325" t="s">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="C325">
-        <v>216228</v>
+        <v>939767</v>
       </c>
       <c r="D325">
-        <v>2405400000</v>
+        <v>191454000</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -6327,13 +6233,13 @@
         <v>2016</v>
       </c>
       <c r="B326" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C326">
-        <v>5513</v>
+        <v>944695</v>
       </c>
       <c r="D326">
-        <v>11046500000</v>
+        <v>4945800000</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -6341,13 +6247,13 @@
         <v>2016</v>
       </c>
       <c r="B327" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C327">
-        <v>67716</v>
+        <v>1214816</v>
       </c>
       <c r="D327">
-        <v>4128828000</v>
+        <v>4005657000</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6355,13 +6261,13 @@
         <v>2016</v>
       </c>
       <c r="B328" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C328">
-        <v>1022671</v>
+        <v>350797</v>
       </c>
       <c r="D328">
-        <v>7777109000</v>
+        <v>1342860000</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -6369,13 +6275,13 @@
         <v>2016</v>
       </c>
       <c r="B329" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C329">
-        <v>1616707</v>
+        <v>793952</v>
       </c>
       <c r="D329">
-        <v>3380360000</v>
+        <v>5996458000</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -6383,13 +6289,13 @@
         <v>2016</v>
       </c>
       <c r="B330" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C330">
-        <v>1616862</v>
+        <v>794367</v>
       </c>
       <c r="D330">
-        <v>4097399999.99999</v>
+        <v>25778000000</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -6397,13 +6303,13 @@
         <v>2016</v>
       </c>
       <c r="B331" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C331">
-        <v>1597033</v>
+        <v>1359841</v>
       </c>
       <c r="D331">
-        <v>829620000</v>
+        <v>1575309000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -6411,13 +6317,13 @@
         <v>2016</v>
       </c>
       <c r="B332" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C332">
-        <v>1689923</v>
+        <v>1308606</v>
       </c>
       <c r="D332">
-        <v>829620000</v>
+        <v>685974000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -6425,13 +6331,13 @@
         <v>2016</v>
       </c>
       <c r="B333" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C333">
-        <v>58492</v>
+        <v>354707</v>
       </c>
       <c r="D333">
-        <v>3749900000</v>
+        <v>2380654000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -6439,13 +6345,13 @@
         <v>2016</v>
       </c>
       <c r="B334" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="C334">
-        <v>1617640</v>
+        <v>1475922</v>
       </c>
       <c r="D334">
-        <v>846589000</v>
+        <v>1519084000</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -6453,13 +6359,13 @@
         <v>2016</v>
       </c>
       <c r="B335" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
       <c r="C335">
-        <v>25232</v>
+        <v>36966</v>
       </c>
       <c r="D335">
-        <v>259211000</v>
+        <v>1270525000</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -6467,13 +6373,13 @@
         <v>2016</v>
       </c>
       <c r="B336" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C336">
-        <v>898293</v>
+        <v>14930</v>
       </c>
       <c r="D336">
-        <v>18353086000</v>
+        <v>4488500000</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -6481,13 +6387,13 @@
         <v>2016</v>
       </c>
       <c r="B337" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C337">
-        <v>1037038</v>
+        <v>1594109</v>
       </c>
       <c r="D337">
-        <v>7405000000</v>
+        <v>493331000</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -6495,13 +6401,13 @@
         <v>2016</v>
       </c>
       <c r="B338" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C338">
-        <v>935494</v>
+        <v>1439404</v>
       </c>
       <c r="D338">
-        <v>1228179000</v>
+        <v>741420000</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -6509,13 +6415,13 @@
         <v>2016</v>
       </c>
       <c r="B339" t="s">
-        <v>423</v>
+        <v>287</v>
       </c>
       <c r="C339">
-        <v>726958</v>
+        <v>876437</v>
       </c>
       <c r="D339">
-        <v>7122086000</v>
+        <v>1062483000</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -6523,13 +6429,13 @@
         <v>2016</v>
       </c>
       <c r="B340" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C340">
-        <v>91767</v>
+        <v>1111928</v>
       </c>
       <c r="D340">
-        <v>4782877000</v>
+        <v>1006173000</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -6537,13 +6443,13 @@
         <v>2016</v>
       </c>
       <c r="B341" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C341">
-        <v>1012100</v>
+        <v>1056696</v>
       </c>
       <c r="D341">
-        <v>6778300000</v>
+        <v>604557000</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -6551,13 +6457,13 @@
         <v>2016</v>
       </c>
       <c r="B342" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C342">
-        <v>1378992</v>
+        <v>1498828</v>
       </c>
       <c r="D342">
-        <v>1618000000</v>
+        <v>1035005000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -6565,13 +6471,13 @@
         <v>2016</v>
       </c>
       <c r="B343" t="s">
-        <v>452</v>
+        <v>290</v>
       </c>
       <c r="C343">
-        <v>1370637</v>
+        <v>63276</v>
       </c>
       <c r="D343">
-        <v>364967000</v>
+        <v>5456650000</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -6579,13 +6485,13 @@
         <v>2016</v>
       </c>
       <c r="B344" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C344">
-        <v>1177394</v>
+        <v>825542</v>
       </c>
       <c r="D344">
-        <v>14061837000</v>
+        <v>402300000</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -6593,13 +6499,13 @@
         <v>2016</v>
       </c>
       <c r="B345" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C345">
-        <v>861878</v>
+        <v>46619</v>
       </c>
       <c r="D345">
-        <v>3562342000</v>
+        <v>1376258000</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -6607,13 +6513,13 @@
         <v>2016</v>
       </c>
       <c r="B346" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C346">
-        <v>105016</v>
+        <v>1487712</v>
       </c>
       <c r="D346">
-        <v>4220702000</v>
+        <v>1419055000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -6621,13 +6527,13 @@
         <v>2016</v>
       </c>
       <c r="B347" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C347">
-        <v>1002517</v>
+        <v>1307954</v>
       </c>
       <c r="D347">
-        <v>1948903000</v>
+        <v>9657000000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -6635,13 +6541,13 @@
         <v>2016</v>
       </c>
       <c r="B348" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C348">
-        <v>1142417</v>
+        <v>1591698</v>
       </c>
       <c r="D348">
-        <v>309879000</v>
+        <v>230701000</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -6649,13 +6555,13 @@
         <v>2016</v>
       </c>
       <c r="B349" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C349">
-        <v>71691</v>
+        <v>46765</v>
       </c>
       <c r="D349">
-        <v>1555342000</v>
+        <v>1624232000</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -6663,13 +6569,13 @@
         <v>2016</v>
       </c>
       <c r="B350" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C350">
-        <v>939767</v>
+        <v>885550</v>
       </c>
       <c r="D350">
-        <v>191454000</v>
+        <v>969200000</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -6677,13 +6583,13 @@
         <v>2016</v>
       </c>
       <c r="B351" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C351">
-        <v>944695</v>
+        <v>1308547</v>
       </c>
       <c r="D351">
-        <v>4945800000</v>
+        <v>1025738000</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -6691,13 +6597,13 @@
         <v>2016</v>
       </c>
       <c r="B352" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C352">
-        <v>1214816</v>
+        <v>25445</v>
       </c>
       <c r="D352">
-        <v>4005657000</v>
+        <v>2748000000</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -6705,13 +6611,13 @@
         <v>2016</v>
       </c>
       <c r="B353" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C353">
-        <v>350797</v>
+        <v>853816</v>
       </c>
       <c r="D353">
-        <v>1342860000</v>
+        <v>3167634000</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -6719,13 +6625,13 @@
         <v>2016</v>
       </c>
       <c r="B354" t="s">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C354">
-        <v>793952</v>
+        <v>1311370</v>
       </c>
       <c r="D354">
-        <v>5996458000</v>
+        <v>2383663000</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -6733,13 +6639,13 @@
         <v>2016</v>
       </c>
       <c r="B355" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C355">
-        <v>794367</v>
+        <v>70866</v>
       </c>
       <c r="D355">
-        <v>25778000000</v>
+        <v>6543000000</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -6747,13 +6653,13 @@
         <v>2016</v>
       </c>
       <c r="B356" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C356">
-        <v>1359841</v>
+        <v>1273813</v>
       </c>
       <c r="D356">
-        <v>1575309000</v>
+        <v>1677000000</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -6761,13 +6667,13 @@
         <v>2016</v>
       </c>
       <c r="B357" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C357">
-        <v>944314</v>
+        <v>822818</v>
       </c>
       <c r="D357">
-        <v>1575309000</v>
+        <v>692113000</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -6775,13 +6681,13 @@
         <v>2016</v>
       </c>
       <c r="B358" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C358">
-        <v>1308606</v>
+        <v>850209</v>
       </c>
       <c r="D358">
-        <v>685974000</v>
+        <v>7766000000</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -6789,13 +6695,13 @@
         <v>2016</v>
       </c>
       <c r="B359" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C359">
-        <v>354707</v>
+        <v>1579877</v>
       </c>
       <c r="D359">
-        <v>2380654000</v>
+        <v>1513900000</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -6803,13 +6709,13 @@
         <v>2016</v>
       </c>
       <c r="B360" t="s">
-        <v>426</v>
+        <v>307</v>
       </c>
       <c r="C360">
-        <v>1475922</v>
+        <v>1082554</v>
       </c>
       <c r="D360">
-        <v>1519084000</v>
+        <v>1598800000</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -6817,13 +6723,13 @@
         <v>2016</v>
       </c>
       <c r="B361" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C361">
-        <v>36966</v>
+        <v>1274494</v>
       </c>
       <c r="D361">
-        <v>1270525000</v>
+        <v>2951328000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6831,13 +6737,13 @@
         <v>2016</v>
       </c>
       <c r="B362" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
       <c r="C362">
-        <v>14930</v>
+        <v>1474432</v>
       </c>
       <c r="D362">
-        <v>4488500000</v>
+        <v>727977000</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -6845,13 +6751,13 @@
         <v>2016</v>
       </c>
       <c r="B363" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C363">
-        <v>1594109</v>
+        <v>1101215</v>
       </c>
       <c r="D363">
-        <v>493331000</v>
+        <v>7138100000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -6859,13 +6765,13 @@
         <v>2016</v>
       </c>
       <c r="B364" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C364">
-        <v>1439404</v>
+        <v>1180262</v>
       </c>
       <c r="D364">
-        <v>741420000</v>
+        <v>4488400000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -6873,13 +6779,13 @@
         <v>2016</v>
       </c>
       <c r="B365" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C365">
-        <v>876437</v>
+        <v>1206264</v>
       </c>
       <c r="D365">
-        <v>1062483000</v>
+        <v>3127300000</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -6887,13 +6793,13 @@
         <v>2016</v>
       </c>
       <c r="B366" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C366">
-        <v>1689796</v>
+        <v>30697</v>
       </c>
       <c r="D366">
-        <v>1062483000</v>
+        <v>1435418000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -6901,13 +6807,13 @@
         <v>2016</v>
       </c>
       <c r="B367" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C367">
-        <v>1111928</v>
+        <v>1420302</v>
       </c>
       <c r="D367">
-        <v>1006173000</v>
+        <v>336068000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -6915,13 +6821,13 @@
         <v>2016</v>
       </c>
       <c r="B368" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C368">
-        <v>1056696</v>
+        <v>39911</v>
       </c>
       <c r="D368">
-        <v>604557000</v>
+        <v>15516000000</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -6929,13 +6835,13 @@
         <v>2016</v>
       </c>
       <c r="B369" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="C369">
-        <v>1498828</v>
+        <v>906709</v>
       </c>
       <c r="D369">
-        <v>1035005000</v>
+        <v>165436000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -6943,13 +6849,13 @@
         <v>2016</v>
       </c>
       <c r="B370" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C370">
-        <v>63276</v>
+        <v>883984</v>
       </c>
       <c r="D370">
-        <v>5456650000</v>
+        <v>379372000</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -6957,13 +6863,13 @@
         <v>2016</v>
       </c>
       <c r="B371" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C371">
-        <v>825542</v>
+        <v>8858</v>
       </c>
       <c r="D371">
-        <v>402300000</v>
+        <v>26219279000</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -6971,13 +6877,13 @@
         <v>2016</v>
       </c>
       <c r="B372" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C372">
-        <v>46619</v>
+        <v>21510</v>
       </c>
       <c r="D372">
-        <v>1376258000</v>
+        <v>857385000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6985,13 +6891,13 @@
         <v>2016</v>
       </c>
       <c r="B373" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C373">
-        <v>1699150</v>
+        <v>1045309</v>
       </c>
       <c r="D373">
-        <v>1376258000</v>
+        <v>1598600000</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -6999,13 +6905,13 @@
         <v>2016</v>
       </c>
       <c r="B374" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C374">
-        <v>1487712</v>
+        <v>1046311</v>
       </c>
       <c r="D374">
-        <v>1419055000</v>
+        <v>924641000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -7013,13 +6919,13 @@
         <v>2016</v>
       </c>
       <c r="B375" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C375">
-        <v>1307954</v>
+        <v>1420800</v>
       </c>
       <c r="D375">
-        <v>9657000000</v>
+        <v>3647047000</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -7027,13 +6933,13 @@
         <v>2016</v>
       </c>
       <c r="B376" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C376">
-        <v>1591698</v>
+        <v>704051</v>
       </c>
       <c r="D376">
-        <v>230701000</v>
+        <v>2660844000</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -7041,13 +6947,13 @@
         <v>2016</v>
       </c>
       <c r="B377" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C377">
-        <v>46765</v>
+        <v>1385280</v>
       </c>
       <c r="D377">
-        <v>1624232000</v>
+        <v>2918765000</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -7055,13 +6961,13 @@
         <v>2016</v>
       </c>
       <c r="B378" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C378">
-        <v>1685040</v>
+        <v>860546</v>
       </c>
       <c r="D378">
-        <v>1624232000</v>
+        <v>574328000</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -7069,13 +6975,13 @@
         <v>2016</v>
       </c>
       <c r="B379" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C379">
-        <v>885550</v>
+        <v>912242</v>
       </c>
       <c r="D379">
-        <v>969200000</v>
+        <v>1041271000</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -7083,13 +6989,13 @@
         <v>2016</v>
       </c>
       <c r="B380" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C380">
-        <v>1308547</v>
+        <v>1013857</v>
       </c>
       <c r="D380">
-        <v>1025738000</v>
+        <v>750266000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -7097,13 +7003,13 @@
         <v>2016</v>
       </c>
       <c r="B381" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="C381">
-        <v>25445</v>
+        <v>1289790</v>
       </c>
       <c r="D381">
-        <v>2748000000</v>
+        <v>1651731000</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -7111,13 +7017,13 @@
         <v>2016</v>
       </c>
       <c r="B382" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C382">
-        <v>853816</v>
+        <v>4457</v>
       </c>
       <c r="D382">
-        <v>3167634000</v>
+        <v>3275656000</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -7125,13 +7031,13 @@
         <v>2016</v>
       </c>
       <c r="B383" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C383">
-        <v>1311370</v>
+        <v>1468174</v>
       </c>
       <c r="D383">
-        <v>2383663000</v>
+        <v>4429000000</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -7139,13 +7045,13 @@
         <v>2016</v>
       </c>
       <c r="B384" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="C384">
-        <v>70866</v>
+        <v>1370880</v>
       </c>
       <c r="D384">
-        <v>6543000000</v>
+        <v>714114000</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -7153,13 +7059,13 @@
         <v>2016</v>
       </c>
       <c r="B385" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C385">
-        <v>1273813</v>
+        <v>1003078</v>
       </c>
       <c r="D385">
-        <v>1677000000</v>
+        <v>2863505000</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -7167,13 +7073,13 @@
         <v>2016</v>
       </c>
       <c r="B386" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C386">
-        <v>822818</v>
+        <v>1448056</v>
       </c>
       <c r="D386">
-        <v>692113000</v>
+        <v>181309000</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -7181,13 +7087,13 @@
         <v>2016</v>
       </c>
       <c r="B387" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C387">
-        <v>850209</v>
+        <v>1289419</v>
       </c>
       <c r="D387">
-        <v>7766000000</v>
+        <v>798600000</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -7195,13 +7101,13 @@
         <v>2016</v>
       </c>
       <c r="B388" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C388">
-        <v>1579877</v>
+        <v>1360901</v>
       </c>
       <c r="D388">
-        <v>1513900000</v>
+        <v>1456790000</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -7209,13 +7115,13 @@
         <v>2016</v>
       </c>
       <c r="B389" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="C389">
-        <v>1082554</v>
+        <v>1526520</v>
       </c>
       <c r="D389">
-        <v>1598800000</v>
+        <v>1480000000</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -7223,13 +7129,13 @@
         <v>2016</v>
       </c>
       <c r="B390" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="C390">
-        <v>1274494</v>
+        <v>701374</v>
       </c>
       <c r="D390">
-        <v>2951328000</v>
+        <v>1319398000</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -7237,13 +7143,13 @@
         <v>2016</v>
       </c>
       <c r="B391" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="C391">
-        <v>1474432</v>
+        <v>1451505</v>
       </c>
       <c r="D391">
-        <v>727977000</v>
+        <v>974000000</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -7251,13 +7157,13 @@
         <v>2016</v>
       </c>
       <c r="B392" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C392">
-        <v>1101215</v>
+        <v>1282637</v>
       </c>
       <c r="D392">
-        <v>7138100000</v>
+        <v>2049451000</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -7265,13 +7171,13 @@
         <v>2016</v>
       </c>
       <c r="B393" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C393">
-        <v>1180262</v>
+        <v>1089063</v>
       </c>
       <c r="D393">
-        <v>4488400000</v>
+        <v>7921981000</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -7279,13 +7185,13 @@
         <v>2016</v>
       </c>
       <c r="B394" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C394">
-        <v>1206264</v>
+        <v>1124198</v>
       </c>
       <c r="D394">
-        <v>3127300000</v>
+        <v>19036525000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -7293,13 +7199,13 @@
         <v>2016</v>
       </c>
       <c r="B395" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C395">
-        <v>30697</v>
+        <v>74303</v>
       </c>
       <c r="D395">
-        <v>1435418000</v>
+        <v>1385700000</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -7307,13 +7213,13 @@
         <v>2016</v>
       </c>
       <c r="B396" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C396">
-        <v>1420302</v>
+        <v>1320695</v>
       </c>
       <c r="D396">
-        <v>336068000</v>
+        <v>6175088000</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -7321,13 +7227,13 @@
         <v>2016</v>
       </c>
       <c r="B397" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C397">
-        <v>39911</v>
+        <v>1252849</v>
       </c>
       <c r="D397">
-        <v>15516000000</v>
+        <v>473543000</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -7335,13 +7241,13 @@
         <v>2016</v>
       </c>
       <c r="B398" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C398">
-        <v>906709</v>
+        <v>849869</v>
       </c>
       <c r="D398">
-        <v>165436000</v>
+        <v>3612914000</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -7349,13 +7255,13 @@
         <v>2016</v>
       </c>
       <c r="B399" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C399">
-        <v>883984</v>
+        <v>16040</v>
       </c>
       <c r="D399">
-        <v>379372000</v>
+        <v>2411000000</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -7363,13 +7269,13 @@
         <v>2016</v>
       </c>
       <c r="B400" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C400">
-        <v>8858</v>
+        <v>1627223</v>
       </c>
       <c r="D400">
-        <v>26219279000</v>
+        <v>5400000000</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -7377,13 +7283,13 @@
         <v>2016</v>
       </c>
       <c r="B401" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="C401">
-        <v>21510</v>
+        <v>350698</v>
       </c>
       <c r="D401">
-        <v>857385000</v>
+        <v>21609000000</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -7391,13 +7297,13 @@
         <v>2016</v>
       </c>
       <c r="B402" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C402">
-        <v>1045309</v>
+        <v>104889</v>
       </c>
       <c r="D402">
-        <v>1598600000</v>
+        <v>629579000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -7405,13 +7311,13 @@
         <v>2016</v>
       </c>
       <c r="B403" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C403">
-        <v>1046311</v>
+        <v>1262823</v>
       </c>
       <c r="D403">
-        <v>924641000</v>
+        <v>5075456000</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -7419,13 +7325,13 @@
         <v>2016</v>
       </c>
       <c r="B404" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C404">
-        <v>1507079</v>
+        <v>99780</v>
       </c>
       <c r="D404">
-        <v>924641000</v>
+        <v>4588300000</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -7433,13 +7339,13 @@
         <v>2016</v>
       </c>
       <c r="B405" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C405">
-        <v>1420800</v>
+        <v>1091907</v>
       </c>
       <c r="D405">
-        <v>3647047000</v>
+        <v>729216000</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -7447,13 +7353,13 @@
         <v>2016</v>
       </c>
       <c r="B406" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C406">
-        <v>704051</v>
+        <v>929008</v>
       </c>
       <c r="D406">
-        <v>2660844000</v>
+        <v>7336017000</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -7461,13 +7367,13 @@
         <v>2016</v>
       </c>
       <c r="B407" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C407">
-        <v>1385280</v>
+        <v>1541401</v>
       </c>
       <c r="D407">
-        <v>2918765000</v>
+        <v>179263000</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -7475,13 +7381,13 @@
         <v>2016</v>
       </c>
       <c r="B408" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C408">
-        <v>860546</v>
+        <v>1509991</v>
       </c>
       <c r="D408">
-        <v>574328000</v>
+        <v>385355000</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -7489,13 +7395,13 @@
         <v>2016</v>
       </c>
       <c r="B409" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="C409">
-        <v>912242</v>
+        <v>1021561</v>
       </c>
       <c r="D409">
-        <v>1041271000</v>
+        <v>2207797000</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -7503,13 +7409,13 @@
         <v>2016</v>
       </c>
       <c r="B410" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="C410">
-        <v>717423</v>
+        <v>1577916</v>
       </c>
       <c r="D410">
-        <v>1041271000</v>
+        <v>1162594000</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -7517,13 +7423,13 @@
         <v>2016</v>
       </c>
       <c r="B411" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C411">
-        <v>1013857</v>
+        <v>912752</v>
       </c>
       <c r="D411">
-        <v>750266000</v>
+        <v>2736949000</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -7531,13 +7437,13 @@
         <v>2016</v>
       </c>
       <c r="B412" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="C412">
-        <v>1289790</v>
+        <v>912615</v>
       </c>
       <c r="D412">
-        <v>1651731000</v>
+        <v>3445134000</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -7545,13 +7451,13 @@
         <v>2016</v>
       </c>
       <c r="B413" t="s">
-        <v>429</v>
+        <v>351</v>
       </c>
       <c r="C413">
-        <v>1345105</v>
+        <v>1094831</v>
       </c>
       <c r="D413">
-        <v>1651731000</v>
+        <v>2612623000</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -7559,13 +7465,13 @@
         <v>2016</v>
       </c>
       <c r="B414" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C414">
-        <v>4457</v>
+        <v>1514991</v>
       </c>
       <c r="D414">
-        <v>3275656000</v>
+        <v>2755654000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -7573,13 +7479,13 @@
         <v>2016</v>
       </c>
       <c r="B415" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C415">
-        <v>1468174</v>
+        <v>889900</v>
       </c>
       <c r="D415">
-        <v>4429000000</v>
+        <v>915866000</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -7587,13 +7493,13 @@
         <v>2016</v>
       </c>
       <c r="B416" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
       <c r="C416">
-        <v>1370880</v>
+        <v>1163302</v>
       </c>
       <c r="D416">
-        <v>714114000</v>
+        <v>10261000000</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -7601,13 +7507,13 @@
         <v>2016</v>
       </c>
       <c r="B417" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C417">
-        <v>1003078</v>
+        <v>802481</v>
       </c>
       <c r="D417">
-        <v>2863505000</v>
+        <v>7931123000</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -7615,13 +7521,13 @@
         <v>2016</v>
       </c>
       <c r="B418" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C418">
-        <v>1448056</v>
+        <v>64996</v>
       </c>
       <c r="D418">
-        <v>181309000</v>
+        <v>3227683000</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -7629,13 +7535,13 @@
         <v>2016</v>
       </c>
       <c r="B419" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C419">
-        <v>1289419</v>
+        <v>21175</v>
       </c>
       <c r="D419">
-        <v>798600000</v>
+        <v>9366000000</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -7643,13 +7549,13 @@
         <v>2016</v>
       </c>
       <c r="B420" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C420">
-        <v>1360901</v>
+        <v>904163</v>
       </c>
       <c r="D420">
-        <v>1456790000</v>
+        <v>3227951000</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -7657,13 +7563,13 @@
         <v>2016</v>
       </c>
       <c r="B421" t="s">
-        <v>455</v>
+        <v>359</v>
       </c>
       <c r="C421">
-        <v>1526520</v>
+        <v>895126</v>
       </c>
       <c r="D421">
-        <v>1480000000</v>
+        <v>7872000000</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -7671,506 +7577,19 @@
         <v>2016</v>
       </c>
       <c r="B422" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="C422">
-        <v>701374</v>
+        <v>315852</v>
       </c>
       <c r="D422">
-        <v>1319398000</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423">
-        <v>2016</v>
-      </c>
-      <c r="B423" t="s">
-        <v>357</v>
-      </c>
-      <c r="C423">
-        <v>1451505</v>
-      </c>
-      <c r="D423">
-        <v>974000000</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424">
-        <v>2016</v>
-      </c>
-      <c r="B424" t="s">
-        <v>358</v>
-      </c>
-      <c r="C424">
-        <v>1282637</v>
-      </c>
-      <c r="D424">
-        <v>2049451000</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425">
-        <v>2016</v>
-      </c>
-      <c r="B425" t="s">
-        <v>359</v>
-      </c>
-      <c r="C425">
-        <v>1089063</v>
-      </c>
-      <c r="D425">
-        <v>7921981000</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426">
-        <v>2016</v>
-      </c>
-      <c r="B426" t="s">
-        <v>360</v>
-      </c>
-      <c r="C426">
-        <v>1639300</v>
-      </c>
-      <c r="D426">
-        <v>7921981000</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427">
-        <v>2016</v>
-      </c>
-      <c r="B427" t="s">
-        <v>361</v>
-      </c>
-      <c r="C427">
-        <v>1124198</v>
-      </c>
-      <c r="D427">
-        <v>19036525000</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428">
-        <v>2016</v>
-      </c>
-      <c r="B428" t="s">
-        <v>362</v>
-      </c>
-      <c r="C428">
-        <v>74303</v>
-      </c>
-      <c r="D428">
-        <v>1385700000</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429">
-        <v>2016</v>
-      </c>
-      <c r="B429" t="s">
-        <v>363</v>
-      </c>
-      <c r="C429">
-        <v>1320695</v>
-      </c>
-      <c r="D429">
-        <v>6175088000</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430">
-        <v>2016</v>
-      </c>
-      <c r="B430" t="s">
-        <v>364</v>
-      </c>
-      <c r="C430">
-        <v>1252849</v>
-      </c>
-      <c r="D430">
-        <v>473543000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431">
-        <v>2016</v>
-      </c>
-      <c r="B431" t="s">
-        <v>365</v>
-      </c>
-      <c r="C431">
-        <v>849869</v>
-      </c>
-      <c r="D431">
-        <v>3612914000</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432">
-        <v>2016</v>
-      </c>
-      <c r="B432" t="s">
-        <v>366</v>
-      </c>
-      <c r="C432">
-        <v>16040</v>
-      </c>
-      <c r="D432">
-        <v>2411000000</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433">
-        <v>2016</v>
-      </c>
-      <c r="B433" t="s">
-        <v>367</v>
-      </c>
-      <c r="C433">
-        <v>1627223</v>
-      </c>
-      <c r="D433">
-        <v>5400000000</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434">
-        <v>2016</v>
-      </c>
-      <c r="B434" t="s">
-        <v>430</v>
-      </c>
-      <c r="C434">
-        <v>350698</v>
-      </c>
-      <c r="D434">
-        <v>21609000000</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A435">
-        <v>2016</v>
-      </c>
-      <c r="B435" t="s">
-        <v>368</v>
-      </c>
-      <c r="C435">
-        <v>104889</v>
-      </c>
-      <c r="D435">
-        <v>629579000</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436">
-        <v>2016</v>
-      </c>
-      <c r="B436" t="s">
-        <v>369</v>
-      </c>
-      <c r="C436">
-        <v>1262823</v>
-      </c>
-      <c r="D436">
-        <v>5075456000</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437">
-        <v>2016</v>
-      </c>
-      <c r="B437" t="s">
-        <v>370</v>
-      </c>
-      <c r="C437">
-        <v>99780</v>
-      </c>
-      <c r="D437">
-        <v>4588300000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438">
-        <v>2016</v>
-      </c>
-      <c r="B438" t="s">
-        <v>431</v>
-      </c>
-      <c r="C438">
-        <v>1091907</v>
-      </c>
-      <c r="D438">
-        <v>729216000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439">
-        <v>2016</v>
-      </c>
-      <c r="B439" t="s">
-        <v>371</v>
-      </c>
-      <c r="C439">
-        <v>929008</v>
-      </c>
-      <c r="D439">
-        <v>7336017000</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440">
-        <v>2016</v>
-      </c>
-      <c r="B440" t="s">
-        <v>372</v>
-      </c>
-      <c r="C440">
-        <v>1541401</v>
-      </c>
-      <c r="D440">
-        <v>179263000</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441">
-        <v>2016</v>
-      </c>
-      <c r="B441" t="s">
-        <v>373</v>
-      </c>
-      <c r="C441">
-        <v>910406</v>
-      </c>
-      <c r="D441">
-        <v>179263000</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442">
-        <v>2016</v>
-      </c>
-      <c r="B442" t="s">
-        <v>374</v>
-      </c>
-      <c r="C442">
-        <v>1509991</v>
-      </c>
-      <c r="D442">
-        <v>385355000</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443">
-        <v>2016</v>
-      </c>
-      <c r="B443" t="s">
-        <v>457</v>
-      </c>
-      <c r="C443">
-        <v>1021561</v>
-      </c>
-      <c r="D443">
-        <v>2207797000</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444">
-        <v>2016</v>
-      </c>
-      <c r="B444" t="s">
-        <v>432</v>
-      </c>
-      <c r="C444">
-        <v>1577916</v>
-      </c>
-      <c r="D444">
-        <v>1162594000</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A445">
-        <v>2016</v>
-      </c>
-      <c r="B445" t="s">
-        <v>375</v>
-      </c>
-      <c r="C445">
-        <v>912752</v>
-      </c>
-      <c r="D445">
-        <v>2736949000</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>2016</v>
-      </c>
-      <c r="B446" t="s">
-        <v>376</v>
-      </c>
-      <c r="C446">
-        <v>912615</v>
-      </c>
-      <c r="D446">
-        <v>3445134000</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>2016</v>
-      </c>
-      <c r="B447" t="s">
-        <v>377</v>
-      </c>
-      <c r="C447">
-        <v>1094831</v>
-      </c>
-      <c r="D447">
-        <v>2612623000</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448">
-        <v>2016</v>
-      </c>
-      <c r="B448" t="s">
-        <v>378</v>
-      </c>
-      <c r="C448">
-        <v>1514991</v>
-      </c>
-      <c r="D448">
-        <v>2755654000</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449">
-        <v>2016</v>
-      </c>
-      <c r="B449" t="s">
-        <v>379</v>
-      </c>
-      <c r="C449">
-        <v>889900</v>
-      </c>
-      <c r="D449">
-        <v>915866000</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450">
-        <v>2016</v>
-      </c>
-      <c r="B450" t="s">
-        <v>380</v>
-      </c>
-      <c r="C450">
-        <v>1163302</v>
-      </c>
-      <c r="D450">
-        <v>10261000000</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451">
-        <v>2016</v>
-      </c>
-      <c r="B451" t="s">
-        <v>381</v>
-      </c>
-      <c r="C451">
-        <v>802481</v>
-      </c>
-      <c r="D451">
-        <v>7931123000</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452">
-        <v>2016</v>
-      </c>
-      <c r="B452" t="s">
-        <v>382</v>
-      </c>
-      <c r="C452">
-        <v>64996</v>
-      </c>
-      <c r="D452">
-        <v>3227683000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453">
-        <v>2016</v>
-      </c>
-      <c r="B453" t="s">
-        <v>383</v>
-      </c>
-      <c r="C453">
-        <v>21175</v>
-      </c>
-      <c r="D453">
-        <v>9366000000</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454">
-        <v>2016</v>
-      </c>
-      <c r="B454" t="s">
-        <v>384</v>
-      </c>
-      <c r="C454">
-        <v>1692063</v>
-      </c>
-      <c r="D454">
-        <v>9366000000</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455">
-        <v>2016</v>
-      </c>
-      <c r="B455" t="s">
-        <v>385</v>
-      </c>
-      <c r="C455">
-        <v>904163</v>
-      </c>
-      <c r="D455">
-        <v>3227951000</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A456">
-        <v>2016</v>
-      </c>
-      <c r="B456" t="s">
-        <v>386</v>
-      </c>
-      <c r="C456">
-        <v>895126</v>
-      </c>
-      <c r="D456">
-        <v>7872000000</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A457">
-        <v>2016</v>
-      </c>
-      <c r="B457" t="s">
-        <v>387</v>
-      </c>
-      <c r="C457">
-        <v>315852</v>
-      </c>
-      <c r="D457">
         <v>253522000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>